--- a/ebs_with_tracing/forms/app/quarantine.xlsx
+++ b/ebs_with_tracing/forms/app/quarantine.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="457">
   <si>
     <t>list_name</t>
   </si>
@@ -1361,18 +1361,6 @@
     <t>Rempli à</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Masculin</t>
-  </si>
-  <si>
-    <t>Hôtel</t>
-  </si>
-  <si>
     <t>2. Historique du voyage</t>
   </si>
   <si>
@@ -1391,19 +1379,34 @@
     <t>Détails sur l'emploi</t>
   </si>
   <si>
-    <t>Féminin</t>
-  </si>
-  <si>
-    <t>Domicile</t>
-  </si>
-  <si>
-    <t>Autres lieux</t>
+    <t>label::sh</t>
+  </si>
+  <si>
+    <t>Hongu</t>
+  </si>
+  <si>
+    <t>Kwete</t>
+  </si>
+  <si>
+    <t>Murume</t>
+  </si>
+  <si>
+    <t>Mukadzi</t>
+  </si>
+  <si>
+    <t>Hotera</t>
+  </si>
+  <si>
+    <t>Pamusha pake</t>
+  </si>
+  <si>
+    <t>Imwe Nzvimbo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -1699,6 +1702,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1966,36 +1972,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23:D65"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="4" width="43.33203125" customWidth="1"/>
-    <col min="5" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" customWidth="1"/>
-    <col min="8" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" customWidth="1"/>
-    <col min="12" max="12" width="73.83203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="4" width="43.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="73.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="28" width="29.83203125" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="28" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>125</v>
+        <v>449</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>16</v>
@@ -2065,7 +2071,7 @@
       <c r="AA1" s="16"/>
       <c r="AB1" s="16"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>36</v>
       </c>
@@ -2105,7 +2111,7 @@
       <c r="AA2" s="25"/>
       <c r="AB2" s="25"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
@@ -2143,7 +2149,7 @@
       <c r="AA3" s="25"/>
       <c r="AB3" s="25"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
@@ -2179,7 +2185,7 @@
       <c r="AA4" s="25"/>
       <c r="AB4" s="25"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>36</v>
       </c>
@@ -2215,7 +2221,7 @@
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
@@ -2253,7 +2259,7 @@
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -2289,7 +2295,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>52</v>
       </c>
@@ -2325,7 +2331,7 @@
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -2361,7 +2367,7 @@
       <c r="AA9" s="30"/>
       <c r="AB9" s="30"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>36</v>
       </c>
@@ -2397,7 +2403,7 @@
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>52</v>
       </c>
@@ -2433,7 +2439,7 @@
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>52</v>
       </c>
@@ -2469,7 +2475,7 @@
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>52</v>
       </c>
@@ -2505,7 +2511,7 @@
       <c r="AA13" s="30"/>
       <c r="AB13" s="30"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>52</v>
       </c>
@@ -2541,7 +2547,7 @@
       <c r="AA14" s="30"/>
       <c r="AB14" s="30"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>159</v>
       </c>
@@ -2573,7 +2579,7 @@
       <c r="AA15" s="30"/>
       <c r="AB15" s="30"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>159</v>
       </c>
@@ -2607,7 +2613,7 @@
       <c r="AA16" s="25"/>
       <c r="AB16" s="25"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>159</v>
       </c>
@@ -2643,7 +2649,7 @@
       <c r="AA17" s="25"/>
       <c r="AB17" s="25"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -2673,7 +2679,7 @@
       <c r="AA18" s="41"/>
       <c r="AB18" s="41"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
         <v>245</v>
       </c>
@@ -2711,7 +2717,7 @@
       <c r="AA19" s="45"/>
       <c r="AB19" s="45"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
         <v>245</v>
       </c>
@@ -2749,7 +2755,7 @@
       <c r="AA20" s="45"/>
       <c r="AB20" s="45"/>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
@@ -2787,7 +2793,7 @@
       <c r="AA21" s="45"/>
       <c r="AB21" s="45"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -2817,7 +2823,7 @@
       <c r="AA22" s="49"/>
       <c r="AB22" s="49"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
         <v>351</v>
       </c>
@@ -2857,7 +2863,7 @@
       <c r="AA23" s="54"/>
       <c r="AB23" s="54"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
         <v>36</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>356</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
@@ -2897,7 +2903,7 @@
       <c r="AA24" s="54"/>
       <c r="AB24" s="54"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
         <v>357</v>
       </c>
@@ -2935,7 +2941,7 @@
       <c r="AA25" s="57"/>
       <c r="AB25" s="57"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
         <v>351</v>
       </c>
@@ -2973,7 +2979,7 @@
       <c r="AA26" s="54"/>
       <c r="AB26" s="54"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
         <v>351</v>
       </c>
@@ -3011,7 +3017,7 @@
       <c r="AA27" s="54"/>
       <c r="AB27" s="54"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
         <v>351</v>
       </c>
@@ -3049,7 +3055,7 @@
       <c r="AA28" s="57"/>
       <c r="AB28" s="57"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
         <v>368</v>
       </c>
@@ -3087,7 +3093,7 @@
       <c r="AA29" s="57"/>
       <c r="AB29" s="57"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
         <v>351</v>
       </c>
@@ -3125,7 +3131,7 @@
       <c r="AA30" s="57"/>
       <c r="AB30" s="57"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
         <v>372</v>
       </c>
@@ -3157,7 +3163,7 @@
       <c r="AA31" s="57"/>
       <c r="AB31" s="57"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
         <v>159</v>
       </c>
@@ -3189,7 +3195,7 @@
       <c r="AA32" s="57"/>
       <c r="AB32" s="57"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58"/>
       <c r="B33" s="58"/>
       <c r="C33" s="52"/>
@@ -3219,7 +3225,7 @@
       <c r="AA33" s="57"/>
       <c r="AB33" s="57"/>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>36</v>
       </c>
@@ -3259,7 +3265,7 @@
       <c r="AA34" s="54"/>
       <c r="AB34" s="54"/>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
         <v>375</v>
       </c>
@@ -3297,7 +3303,7 @@
       <c r="AA35" s="57"/>
       <c r="AB35" s="57"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
         <v>351</v>
       </c>
@@ -3337,7 +3343,7 @@
       <c r="AA36" s="57"/>
       <c r="AB36" s="57"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
         <v>351</v>
       </c>
@@ -3377,7 +3383,7 @@
       <c r="AA37" s="57"/>
       <c r="AB37" s="57"/>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50" t="s">
         <v>384</v>
       </c>
@@ -3417,7 +3423,7 @@
       <c r="AA38" s="57"/>
       <c r="AB38" s="57"/>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
         <v>387</v>
       </c>
@@ -3459,7 +3465,7 @@
       <c r="AA39" s="57"/>
       <c r="AB39" s="57"/>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
         <v>351</v>
       </c>
@@ -3497,7 +3503,7 @@
       <c r="AA40" s="57"/>
       <c r="AB40" s="57"/>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50" t="s">
         <v>393</v>
       </c>
@@ -3535,7 +3541,7 @@
       <c r="AA41" s="57"/>
       <c r="AB41" s="57"/>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
         <v>351</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>397</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
@@ -3573,7 +3579,7 @@
       <c r="AA42" s="57"/>
       <c r="AB42" s="57"/>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
         <v>398</v>
       </c>
@@ -3611,7 +3617,7 @@
       <c r="AA43" s="57"/>
       <c r="AB43" s="57"/>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
         <v>398</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>402</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
@@ -3649,7 +3655,7 @@
       <c r="AA44" s="57"/>
       <c r="AB44" s="57"/>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
         <v>368</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>404</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
@@ -3687,7 +3693,7 @@
       <c r="AA45" s="57"/>
       <c r="AB45" s="57"/>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
         <v>351</v>
       </c>
@@ -3725,7 +3731,7 @@
       <c r="AA46" s="57"/>
       <c r="AB46" s="57"/>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
         <v>398</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>402</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
@@ -3763,7 +3769,7 @@
       <c r="AA47" s="57"/>
       <c r="AB47" s="57"/>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
         <v>372</v>
       </c>
@@ -3795,7 +3801,7 @@
       <c r="AA48" s="57"/>
       <c r="AB48" s="57"/>
     </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
         <v>159</v>
       </c>
@@ -3827,7 +3833,7 @@
       <c r="AA49" s="57"/>
       <c r="AB49" s="57"/>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
       <c r="B50" s="59"/>
       <c r="C50" s="53"/>
@@ -3857,7 +3863,7 @@
       <c r="AA50" s="60"/>
       <c r="AB50" s="60"/>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>36</v>
       </c>
@@ -3897,7 +3903,7 @@
       <c r="AA51" s="60"/>
       <c r="AB51" s="60"/>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
         <v>368</v>
       </c>
@@ -3935,7 +3941,7 @@
       <c r="AA52" s="57"/>
       <c r="AB52" s="57"/>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
         <v>351</v>
       </c>
@@ -3973,7 +3979,7 @@
       <c r="AA53" s="57"/>
       <c r="AB53" s="57"/>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
         <v>398</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>402</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
@@ -4011,7 +4017,7 @@
       <c r="AA54" s="57"/>
       <c r="AB54" s="57"/>
     </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="50" t="s">
         <v>351</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v>409</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
@@ -4049,7 +4055,7 @@
       <c r="AA55" s="57"/>
       <c r="AB55" s="57"/>
     </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="50" t="s">
         <v>372</v>
       </c>
@@ -4081,7 +4087,7 @@
       <c r="AA56" s="57"/>
       <c r="AB56" s="57"/>
     </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
         <v>159</v>
       </c>
@@ -4113,7 +4119,7 @@
       <c r="AA57" s="60"/>
       <c r="AB57" s="60"/>
     </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="50"/>
       <c r="B58" s="50"/>
       <c r="C58" s="51"/>
@@ -4143,7 +4149,7 @@
       <c r="AA58" s="60"/>
       <c r="AB58" s="60"/>
     </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
         <v>36</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>411</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
@@ -4183,7 +4189,7 @@
       <c r="AA59" s="60"/>
       <c r="AB59" s="60"/>
     </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
         <v>351</v>
       </c>
@@ -4221,7 +4227,7 @@
       <c r="AA60" s="60"/>
       <c r="AB60" s="60"/>
     </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
         <v>351</v>
       </c>
@@ -4259,7 +4265,7 @@
       <c r="AA61" s="60"/>
       <c r="AB61" s="60"/>
     </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="50" t="s">
         <v>351</v>
       </c>
@@ -4297,7 +4303,7 @@
       <c r="AA62" s="60"/>
       <c r="AB62" s="60"/>
     </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="50" t="s">
         <v>351</v>
       </c>
@@ -4335,7 +4341,7 @@
       <c r="AA63" s="60"/>
       <c r="AB63" s="60"/>
     </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="50" t="s">
         <v>351</v>
       </c>
@@ -4373,7 +4379,7 @@
       <c r="AA64" s="60"/>
       <c r="AB64" s="60"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="50" t="s">
         <v>351</v>
       </c>
@@ -4411,7 +4417,7 @@
       <c r="AA65" s="60"/>
       <c r="AB65" s="60"/>
     </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="50" t="s">
         <v>159</v>
       </c>
@@ -4455,23 +4461,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Q258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="17" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="17" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>449</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -4500,7 +4506,7 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4511,7 +4517,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -4527,7 +4533,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
@@ -4538,10 +4544,10 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -4568,7 +4574,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -4595,7 +4601,7 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>47</v>
       </c>
@@ -4606,10 +4612,10 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>47</v>
       </c>
@@ -4620,10 +4626,10 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>47</v>
       </c>
@@ -4634,10 +4640,10 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>74</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>74</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>74</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>74</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>74</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>74</v>
       </c>
@@ -4735,7 +4741,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>83</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>83</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>83</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>83</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>83</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>83</v>
       </c>
@@ -4837,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>83</v>
       </c>
@@ -4854,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>83</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>83</v>
       </c>
@@ -4888,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>83</v>
       </c>
@@ -4905,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>83</v>
       </c>
@@ -4922,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>83</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>83</v>
       </c>
@@ -4956,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>83</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>83</v>
       </c>
@@ -4990,7 +4996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>83</v>
       </c>
@@ -5007,7 +5013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>83</v>
       </c>
@@ -5024,7 +5030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>83</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>83</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>83</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>83</v>
       </c>
@@ -5092,7 +5098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>83</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>83</v>
       </c>
@@ -5126,7 +5132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>83</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>83</v>
       </c>
@@ -5160,7 +5166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>83</v>
       </c>
@@ -5177,7 +5183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>83</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>83</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>83</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>83</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>83</v>
       </c>
@@ -5262,7 +5268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>83</v>
       </c>
@@ -5279,7 +5285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>83</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>83</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>83</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>83</v>
       </c>
@@ -5347,7 +5353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>83</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>83</v>
       </c>
@@ -5381,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>83</v>
       </c>
@@ -5398,7 +5404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>83</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>83</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>83</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>83</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>83</v>
       </c>
@@ -5483,7 +5489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>83</v>
       </c>
@@ -5500,7 +5506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>83</v>
       </c>
@@ -5517,7 +5523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
         <v>83</v>
       </c>
@@ -5534,7 +5540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
         <v>83</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
         <v>83</v>
       </c>
@@ -5568,7 +5574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>83</v>
       </c>
@@ -5585,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
         <v>83</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
         <v>83</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
         <v>83</v>
       </c>
@@ -5636,7 +5642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
         <v>83</v>
       </c>
@@ -5653,7 +5659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
         <v>83</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
         <v>83</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
         <v>83</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
         <v>83</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>83</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
         <v>83</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
         <v>83</v>
       </c>
@@ -5772,7 +5778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>83</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
         <v>83</v>
       </c>
@@ -5806,7 +5812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
         <v>83</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
         <v>83</v>
       </c>
@@ -5840,7 +5846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
         <v>83</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
         <v>83</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
         <v>83</v>
       </c>
@@ -5891,7 +5897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
         <v>83</v>
       </c>
@@ -5908,7 +5914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
         <v>83</v>
       </c>
@@ -5925,7 +5931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
         <v>83</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
         <v>83</v>
       </c>
@@ -5959,7 +5965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
         <v>83</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>83</v>
       </c>
@@ -5993,7 +5999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
         <v>83</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>83</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
         <v>83</v>
       </c>
@@ -6044,832 +6050,832 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="47"/>
       <c r="C93" s="48"/>
       <c r="D93" s="48"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="47"/>
       <c r="C94" s="48"/>
       <c r="D94" s="48"/>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="47"/>
       <c r="C95" s="48"/>
       <c r="D95" s="48"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="47"/>
       <c r="C96" s="48"/>
       <c r="D96" s="48"/>
     </row>
-    <row r="97" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="47"/>
       <c r="C97" s="48"/>
       <c r="D97" s="48"/>
     </row>
-    <row r="98" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="47"/>
       <c r="C98" s="48"/>
       <c r="D98" s="48"/>
     </row>
-    <row r="99" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="47"/>
       <c r="C99" s="48"/>
       <c r="D99" s="48"/>
     </row>
-    <row r="100" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="47"/>
       <c r="C100" s="48"/>
       <c r="D100" s="48"/>
     </row>
-    <row r="101" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="47"/>
       <c r="C101" s="48"/>
       <c r="D101" s="48"/>
     </row>
-    <row r="102" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="47"/>
       <c r="C102" s="48"/>
       <c r="D102" s="48"/>
     </row>
-    <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="47"/>
       <c r="C103" s="48"/>
       <c r="D103" s="48"/>
     </row>
-    <row r="104" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="47"/>
       <c r="C104" s="48"/>
       <c r="D104" s="48"/>
     </row>
-    <row r="105" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="47"/>
       <c r="C105" s="48"/>
       <c r="D105" s="48"/>
     </row>
-    <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="47"/>
       <c r="C106" s="48"/>
       <c r="D106" s="48"/>
     </row>
-    <row r="107" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="47"/>
       <c r="C107" s="48"/>
       <c r="D107" s="48"/>
     </row>
-    <row r="108" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="47"/>
       <c r="C108" s="48"/>
       <c r="D108" s="48"/>
     </row>
-    <row r="109" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="47"/>
       <c r="C109" s="48"/>
       <c r="D109" s="48"/>
     </row>
-    <row r="110" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="47"/>
       <c r="C110" s="48"/>
       <c r="D110" s="48"/>
     </row>
-    <row r="111" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="47"/>
       <c r="C111" s="48"/>
       <c r="D111" s="48"/>
     </row>
-    <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="47"/>
       <c r="C112" s="48"/>
       <c r="D112" s="48"/>
     </row>
-    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="47"/>
       <c r="C113" s="48"/>
       <c r="D113" s="48"/>
     </row>
-    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="47"/>
       <c r="C114" s="48"/>
       <c r="D114" s="48"/>
     </row>
-    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="47"/>
       <c r="C115" s="48"/>
       <c r="D115" s="48"/>
     </row>
-    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="47"/>
       <c r="C116" s="48"/>
       <c r="D116" s="48"/>
     </row>
-    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="47"/>
       <c r="C117" s="48"/>
       <c r="D117" s="48"/>
     </row>
-    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="47"/>
       <c r="C118" s="48"/>
       <c r="D118" s="48"/>
     </row>
-    <row r="119" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="47"/>
       <c r="C119" s="48"/>
       <c r="D119" s="48"/>
     </row>
-    <row r="120" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="47"/>
       <c r="C120" s="48"/>
       <c r="D120" s="48"/>
     </row>
-    <row r="121" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="47"/>
       <c r="C121" s="48"/>
       <c r="D121" s="48"/>
     </row>
-    <row r="122" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="47"/>
       <c r="C122" s="48"/>
       <c r="D122" s="48"/>
     </row>
-    <row r="123" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="47"/>
       <c r="C123" s="48"/>
       <c r="D123" s="48"/>
     </row>
-    <row r="124" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="47"/>
       <c r="C124" s="48"/>
       <c r="D124" s="48"/>
     </row>
-    <row r="125" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="47"/>
       <c r="C125" s="48"/>
       <c r="D125" s="48"/>
     </row>
-    <row r="126" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="47"/>
       <c r="C126" s="48"/>
       <c r="D126" s="48"/>
     </row>
-    <row r="127" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="47"/>
       <c r="C127" s="48"/>
       <c r="D127" s="48"/>
     </row>
-    <row r="128" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="47"/>
       <c r="C128" s="48"/>
       <c r="D128" s="48"/>
     </row>
-    <row r="129" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="47"/>
       <c r="C129" s="48"/>
       <c r="D129" s="48"/>
     </row>
-    <row r="130" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="47"/>
       <c r="C130" s="48"/>
       <c r="D130" s="48"/>
     </row>
-    <row r="131" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="47"/>
       <c r="C131" s="48"/>
       <c r="D131" s="48"/>
     </row>
-    <row r="132" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="47"/>
       <c r="C132" s="48"/>
       <c r="D132" s="48"/>
     </row>
-    <row r="133" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="47"/>
       <c r="C133" s="48"/>
       <c r="D133" s="48"/>
     </row>
-    <row r="134" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="47"/>
       <c r="C134" s="48"/>
       <c r="D134" s="48"/>
     </row>
-    <row r="135" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="47"/>
       <c r="C135" s="48"/>
       <c r="D135" s="48"/>
     </row>
-    <row r="136" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="47"/>
       <c r="C136" s="48"/>
       <c r="D136" s="48"/>
     </row>
-    <row r="137" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="47"/>
       <c r="C137" s="48"/>
       <c r="D137" s="48"/>
     </row>
-    <row r="138" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="47"/>
       <c r="C138" s="48"/>
       <c r="D138" s="48"/>
     </row>
-    <row r="139" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="47"/>
       <c r="C139" s="48"/>
       <c r="D139" s="48"/>
     </row>
-    <row r="140" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="47"/>
       <c r="C140" s="48"/>
       <c r="D140" s="48"/>
     </row>
-    <row r="141" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="47"/>
       <c r="C141" s="48"/>
       <c r="D141" s="48"/>
     </row>
-    <row r="142" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="47"/>
       <c r="C142" s="48"/>
       <c r="D142" s="48"/>
     </row>
-    <row r="143" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="47"/>
       <c r="C143" s="48"/>
       <c r="D143" s="48"/>
     </row>
-    <row r="144" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="47"/>
       <c r="C144" s="48"/>
       <c r="D144" s="48"/>
     </row>
-    <row r="145" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="47"/>
       <c r="C145" s="48"/>
       <c r="D145" s="48"/>
     </row>
-    <row r="146" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="47"/>
       <c r="C146" s="48"/>
       <c r="D146" s="48"/>
     </row>
-    <row r="147" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="47"/>
       <c r="C147" s="48"/>
       <c r="D147" s="48"/>
     </row>
-    <row r="148" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="47"/>
       <c r="C148" s="48"/>
       <c r="D148" s="48"/>
     </row>
-    <row r="149" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="47"/>
       <c r="C149" s="48"/>
       <c r="D149" s="48"/>
     </row>
-    <row r="150" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="47"/>
       <c r="C150" s="48"/>
       <c r="D150" s="48"/>
     </row>
-    <row r="151" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="47"/>
       <c r="C151" s="48"/>
       <c r="D151" s="48"/>
     </row>
-    <row r="152" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="47"/>
       <c r="C152" s="48"/>
       <c r="D152" s="48"/>
     </row>
-    <row r="153" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="47"/>
       <c r="C153" s="48"/>
       <c r="D153" s="48"/>
     </row>
-    <row r="154" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="47"/>
       <c r="C154" s="48"/>
       <c r="D154" s="48"/>
     </row>
-    <row r="155" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="47"/>
       <c r="C155" s="48"/>
       <c r="D155" s="48"/>
     </row>
-    <row r="156" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="47"/>
       <c r="C156" s="48"/>
       <c r="D156" s="48"/>
     </row>
-    <row r="157" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="47"/>
       <c r="C157" s="48"/>
       <c r="D157" s="48"/>
     </row>
-    <row r="158" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="47"/>
       <c r="C158" s="48"/>
       <c r="D158" s="48"/>
     </row>
-    <row r="159" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="47"/>
       <c r="C159" s="48"/>
       <c r="D159" s="48"/>
     </row>
-    <row r="160" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="47"/>
       <c r="C160" s="48"/>
       <c r="D160" s="48"/>
     </row>
-    <row r="161" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="47"/>
       <c r="C161" s="48"/>
       <c r="D161" s="48"/>
     </row>
-    <row r="162" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="47"/>
       <c r="C162" s="48"/>
       <c r="D162" s="48"/>
     </row>
-    <row r="163" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="47"/>
       <c r="C163" s="48"/>
       <c r="D163" s="48"/>
     </row>
-    <row r="164" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="47"/>
       <c r="C164" s="48"/>
       <c r="D164" s="48"/>
     </row>
-    <row r="165" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="47"/>
       <c r="C165" s="48"/>
       <c r="D165" s="48"/>
     </row>
-    <row r="166" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="47"/>
       <c r="C166" s="48"/>
       <c r="D166" s="48"/>
     </row>
-    <row r="167" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="47"/>
       <c r="C167" s="48"/>
       <c r="D167" s="48"/>
     </row>
-    <row r="168" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="47"/>
       <c r="C168" s="48"/>
       <c r="D168" s="48"/>
     </row>
-    <row r="169" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="47"/>
       <c r="C169" s="48"/>
       <c r="D169" s="48"/>
     </row>
-    <row r="170" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="47"/>
       <c r="C170" s="48"/>
       <c r="D170" s="48"/>
     </row>
-    <row r="171" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="47"/>
       <c r="C171" s="48"/>
       <c r="D171" s="48"/>
     </row>
-    <row r="172" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="47"/>
       <c r="C172" s="48"/>
       <c r="D172" s="48"/>
     </row>
-    <row r="173" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="47"/>
       <c r="C173" s="48"/>
       <c r="D173" s="48"/>
     </row>
-    <row r="174" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="47"/>
       <c r="C174" s="48"/>
       <c r="D174" s="48"/>
     </row>
-    <row r="175" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="47"/>
       <c r="C175" s="48"/>
       <c r="D175" s="48"/>
     </row>
-    <row r="176" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="47"/>
       <c r="C176" s="48"/>
       <c r="D176" s="48"/>
     </row>
-    <row r="177" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="47"/>
       <c r="C177" s="48"/>
       <c r="D177" s="48"/>
     </row>
-    <row r="178" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="47"/>
       <c r="C178" s="48"/>
       <c r="D178" s="48"/>
     </row>
-    <row r="179" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="47"/>
       <c r="C179" s="48"/>
       <c r="D179" s="48"/>
     </row>
-    <row r="180" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="47"/>
       <c r="C180" s="48"/>
       <c r="D180" s="48"/>
     </row>
-    <row r="181" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="47"/>
       <c r="C181" s="48"/>
       <c r="D181" s="48"/>
     </row>
-    <row r="182" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="47"/>
       <c r="C182" s="48"/>
       <c r="D182" s="48"/>
     </row>
-    <row r="183" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="47"/>
       <c r="C183" s="48"/>
       <c r="D183" s="48"/>
     </row>
-    <row r="184" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="47"/>
       <c r="C184" s="48"/>
       <c r="D184" s="48"/>
     </row>
-    <row r="185" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="47"/>
       <c r="C185" s="48"/>
       <c r="D185" s="48"/>
     </row>
-    <row r="186" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="47"/>
       <c r="C186" s="48"/>
       <c r="D186" s="48"/>
     </row>
-    <row r="187" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="47"/>
       <c r="C187" s="48"/>
       <c r="D187" s="48"/>
     </row>
-    <row r="188" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="47"/>
       <c r="C188" s="48"/>
       <c r="D188" s="48"/>
     </row>
-    <row r="189" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="47"/>
       <c r="C189" s="48"/>
       <c r="D189" s="48"/>
     </row>
-    <row r="190" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="47"/>
       <c r="C190" s="48"/>
       <c r="D190" s="48"/>
     </row>
-    <row r="191" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="47"/>
       <c r="C191" s="48"/>
       <c r="D191" s="48"/>
     </row>
-    <row r="192" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="47"/>
       <c r="C192" s="48"/>
       <c r="D192" s="48"/>
     </row>
-    <row r="193" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="47"/>
       <c r="C193" s="48"/>
       <c r="D193" s="48"/>
     </row>
-    <row r="194" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="47"/>
       <c r="C194" s="48"/>
       <c r="D194" s="48"/>
     </row>
-    <row r="195" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="47"/>
       <c r="C195" s="48"/>
       <c r="D195" s="48"/>
     </row>
-    <row r="196" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="47"/>
       <c r="C196" s="48"/>
       <c r="D196" s="48"/>
     </row>
-    <row r="197" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="47"/>
       <c r="C197" s="48"/>
       <c r="D197" s="48"/>
     </row>
-    <row r="198" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="47"/>
       <c r="C198" s="48"/>
       <c r="D198" s="48"/>
     </row>
-    <row r="199" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="47"/>
       <c r="C199" s="48"/>
       <c r="D199" s="48"/>
     </row>
-    <row r="200" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="47"/>
       <c r="C200" s="48"/>
       <c r="D200" s="48"/>
     </row>
-    <row r="201" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="47"/>
       <c r="C201" s="48"/>
       <c r="D201" s="48"/>
     </row>
-    <row r="202" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="47"/>
       <c r="C202" s="48"/>
       <c r="D202" s="48"/>
     </row>
-    <row r="203" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="47"/>
       <c r="C203" s="48"/>
       <c r="D203" s="48"/>
     </row>
-    <row r="204" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="47"/>
       <c r="C204" s="48"/>
       <c r="D204" s="48"/>
     </row>
-    <row r="205" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="47"/>
       <c r="C205" s="48"/>
       <c r="D205" s="48"/>
     </row>
-    <row r="206" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="47"/>
       <c r="C206" s="48"/>
       <c r="D206" s="48"/>
     </row>
-    <row r="207" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="47"/>
       <c r="C207" s="48"/>
       <c r="D207" s="48"/>
     </row>
-    <row r="208" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="47"/>
       <c r="C208" s="48"/>
       <c r="D208" s="48"/>
     </row>
-    <row r="209" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="47"/>
       <c r="C209" s="48"/>
       <c r="D209" s="48"/>
     </row>
-    <row r="210" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="47"/>
       <c r="C210" s="48"/>
       <c r="D210" s="48"/>
     </row>
-    <row r="211" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="47"/>
       <c r="C211" s="48"/>
       <c r="D211" s="48"/>
     </row>
-    <row r="212" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="47"/>
       <c r="C212" s="48"/>
       <c r="D212" s="48"/>
     </row>
-    <row r="213" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="47"/>
       <c r="C213" s="48"/>
       <c r="D213" s="48"/>
     </row>
-    <row r="214" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="47"/>
       <c r="C214" s="48"/>
       <c r="D214" s="48"/>
     </row>
-    <row r="215" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="47"/>
       <c r="C215" s="48"/>
       <c r="D215" s="48"/>
     </row>
-    <row r="216" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="47"/>
       <c r="C216" s="48"/>
       <c r="D216" s="48"/>
     </row>
-    <row r="217" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="47"/>
       <c r="C217" s="48"/>
       <c r="D217" s="48"/>
     </row>
-    <row r="218" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="47"/>
       <c r="C218" s="48"/>
       <c r="D218" s="48"/>
     </row>
-    <row r="219" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="47"/>
       <c r="C219" s="48"/>
       <c r="D219" s="48"/>
     </row>
-    <row r="220" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="47"/>
       <c r="C220" s="48"/>
       <c r="D220" s="48"/>
     </row>
-    <row r="221" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="47"/>
       <c r="C221" s="48"/>
       <c r="D221" s="48"/>
     </row>
-    <row r="222" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="47"/>
       <c r="C222" s="48"/>
       <c r="D222" s="48"/>
     </row>
-    <row r="223" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="47"/>
       <c r="C223" s="48"/>
       <c r="D223" s="48"/>
     </row>
-    <row r="224" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="47"/>
       <c r="C224" s="48"/>
       <c r="D224" s="48"/>
     </row>
-    <row r="225" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="47"/>
       <c r="C225" s="48"/>
       <c r="D225" s="48"/>
     </row>
-    <row r="226" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="47"/>
       <c r="C226" s="48"/>
       <c r="D226" s="48"/>
     </row>
-    <row r="227" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="47"/>
       <c r="C227" s="48"/>
       <c r="D227" s="48"/>
     </row>
-    <row r="228" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="47"/>
       <c r="C228" s="48"/>
       <c r="D228" s="48"/>
     </row>
-    <row r="229" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="47"/>
       <c r="C229" s="48"/>
       <c r="D229" s="48"/>
     </row>
-    <row r="230" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="47"/>
       <c r="C230" s="48"/>
       <c r="D230" s="48"/>
     </row>
-    <row r="231" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="47"/>
       <c r="C231" s="48"/>
       <c r="D231" s="48"/>
     </row>
-    <row r="232" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="47"/>
       <c r="C232" s="48"/>
       <c r="D232" s="48"/>
     </row>
-    <row r="233" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="47"/>
       <c r="C233" s="48"/>
       <c r="D233" s="48"/>
     </row>
-    <row r="234" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="47"/>
       <c r="C234" s="48"/>
       <c r="D234" s="48"/>
     </row>
-    <row r="235" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="47"/>
       <c r="C235" s="48"/>
       <c r="D235" s="48"/>
     </row>
-    <row r="236" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="47"/>
       <c r="C236" s="48"/>
       <c r="D236" s="48"/>
     </row>
-    <row r="237" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="47"/>
       <c r="C237" s="48"/>
       <c r="D237" s="48"/>
     </row>
-    <row r="238" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="47"/>
       <c r="C238" s="48"/>
       <c r="D238" s="48"/>
     </row>
-    <row r="239" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="47"/>
       <c r="C239" s="48"/>
       <c r="D239" s="48"/>
     </row>
-    <row r="240" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="47"/>
       <c r="C240" s="48"/>
       <c r="D240" s="48"/>
     </row>
-    <row r="241" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="47"/>
       <c r="C241" s="48"/>
       <c r="D241" s="48"/>
     </row>
-    <row r="242" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="47"/>
       <c r="C242" s="48"/>
       <c r="D242" s="48"/>
     </row>
-    <row r="243" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="47"/>
       <c r="C243" s="48"/>
       <c r="D243" s="48"/>
     </row>
-    <row r="244" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="47"/>
       <c r="C244" s="48"/>
       <c r="D244" s="48"/>
     </row>
-    <row r="245" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="47"/>
       <c r="C245" s="48"/>
       <c r="D245" s="48"/>
     </row>
-    <row r="246" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="47"/>
       <c r="C246" s="48"/>
       <c r="D246" s="48"/>
     </row>
-    <row r="247" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="47"/>
       <c r="C247" s="48"/>
       <c r="D247" s="48"/>
     </row>
-    <row r="248" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="47"/>
       <c r="C248" s="48"/>
       <c r="D248" s="48"/>
     </row>
-    <row r="249" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="47"/>
       <c r="C249" s="48"/>
       <c r="D249" s="48"/>
     </row>
-    <row r="250" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="47"/>
       <c r="C250" s="48"/>
       <c r="D250" s="48"/>
     </row>
-    <row r="251" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="47"/>
       <c r="C251" s="48"/>
       <c r="D251" s="48"/>
     </row>
-    <row r="252" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="47"/>
       <c r="C252" s="48"/>
       <c r="D252" s="48"/>
     </row>
-    <row r="253" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="47"/>
       <c r="C253" s="48"/>
       <c r="D253" s="48"/>
     </row>
-    <row r="254" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="47"/>
       <c r="C254" s="48"/>
       <c r="D254" s="48"/>
     </row>
-    <row r="255" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="47"/>
       <c r="C255" s="48"/>
       <c r="D255" s="48"/>
     </row>
-    <row r="256" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="47"/>
       <c r="C256" s="48"/>
       <c r="D256" s="48"/>
     </row>
-    <row r="257" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="47"/>
       <c r="C257" s="48"/>
       <c r="D257" s="48"/>
     </row>
-    <row r="258" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="47"/>
       <c r="C258" s="48"/>
       <c r="D258" s="48"/>
@@ -6881,7 +6887,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z2"/>
@@ -6891,15 +6897,15 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="6" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6941,7 +6947,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -6950,7 +6956,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>43918.512571643521</v>
+        <v>44010.834594560183</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
@@ -6987,7 +6993,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W1000"/>
@@ -6997,13 +7003,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="23" width="45.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="23" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7046,7 +7052,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
@@ -7077,7 +7083,7 @@
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
@@ -7108,7 +7114,7 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -7133,7 +7139,7 @@
       <c r="V4" s="20"/>
       <c r="W4" s="20"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>146</v>
       </c>
@@ -7164,7 +7170,7 @@
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>146</v>
       </c>
@@ -7195,7 +7201,7 @@
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>146</v>
       </c>
@@ -7226,7 +7232,7 @@
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>146</v>
       </c>
@@ -7257,7 +7263,7 @@
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>146</v>
       </c>
@@ -7288,7 +7294,7 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -7313,7 +7319,7 @@
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>182</v>
       </c>
@@ -7344,7 +7350,7 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>182</v>
       </c>
@@ -7375,7 +7381,7 @@
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>182</v>
       </c>
@@ -7406,7 +7412,7 @@
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>182</v>
       </c>
@@ -7437,7 +7443,7 @@
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>182</v>
       </c>
@@ -7468,7 +7474,7 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>182</v>
       </c>
@@ -7499,7 +7505,7 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -7524,7 +7530,7 @@
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>203</v>
       </c>
@@ -7555,7 +7561,7 @@
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>203</v>
       </c>
@@ -7586,7 +7592,7 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>203</v>
       </c>
@@ -7617,7 +7623,7 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>203</v>
       </c>
@@ -7648,7 +7654,7 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>203</v>
       </c>
@@ -7679,7 +7685,7 @@
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>203</v>
       </c>
@@ -7710,7 +7716,7 @@
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -7735,7 +7741,7 @@
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>220</v>
       </c>
@@ -7766,7 +7772,7 @@
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>220</v>
       </c>
@@ -7797,7 +7803,7 @@
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>220</v>
       </c>
@@ -7828,7 +7834,7 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>220</v>
       </c>
@@ -7859,7 +7865,7 @@
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>220</v>
       </c>
@@ -7890,7 +7896,7 @@
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -7915,7 +7921,7 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>259</v>
       </c>
@@ -7946,7 +7952,7 @@
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>259</v>
       </c>
@@ -7977,7 +7983,7 @@
       <c r="V32" s="20"/>
       <c r="W32" s="20"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -8002,7 +8008,7 @@
       <c r="V33" s="20"/>
       <c r="W33" s="20"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>280</v>
       </c>
@@ -8014,7 +8020,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -8026,7 +8032,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>280</v>
       </c>
@@ -8038,7 +8044,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>280</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>280</v>
       </c>
@@ -8062,7 +8068,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>280</v>
       </c>
@@ -8074,7 +8080,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>280</v>
       </c>
@@ -8086,7 +8092,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>280</v>
       </c>
@@ -8110,7 +8116,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>280</v>
       </c>
@@ -8121,13 +8127,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>304</v>
       </c>
@@ -8139,7 +8145,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>304</v>
       </c>
@@ -8151,13 +8157,13 @@
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="s">
         <v>307</v>
       </c>
@@ -8188,7 +8194,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
         <v>307</v>
       </c>
@@ -8219,8 +8225,8 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>312</v>
       </c>
@@ -8231,7 +8237,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -8242,7 +8248,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>312</v>
       </c>
@@ -8253,7 +8259,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>312</v>
       </c>
@@ -8264,7 +8270,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>312</v>
       </c>
@@ -8275,7 +8281,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>312</v>
       </c>
@@ -8286,8 +8292,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="s">
         <v>324</v>
       </c>
@@ -8298,7 +8304,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="s">
         <v>324</v>
       </c>
@@ -8309,7 +8315,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="s">
         <v>324</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
         <v>324</v>
       </c>
@@ -8331,8 +8337,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>333</v>
       </c>
@@ -8343,7 +8349,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>333</v>
       </c>
@@ -8354,7 +8360,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>333</v>
       </c>
@@ -8365,7 +8371,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>333</v>
       </c>
@@ -8376,7 +8382,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>333</v>
       </c>
@@ -8387,8 +8393,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>344</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>344</v>
       </c>
@@ -8410,8 +8416,8 @@
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>349</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>349</v>
       </c>
@@ -8433,7 +8439,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>349</v>
       </c>
@@ -8444,932 +8450,932 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ebs_with_tracing/forms/app/quarantine.xlsx
+++ b/ebs_with_tracing/forms/app/quarantine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="443">
   <si>
     <t>list_name</t>
   </si>
@@ -257,168 +257,27 @@
     <t>provinces</t>
   </si>
   <si>
-    <t>Province 1</t>
-  </si>
-  <si>
-    <t>Province 2</t>
-  </si>
-  <si>
-    <t>Bagmati</t>
-  </si>
-  <si>
-    <t>Gandaki</t>
-  </si>
-  <si>
-    <t>Province 5</t>
-  </si>
-  <si>
-    <t>Karnali</t>
-  </si>
-  <si>
     <t>label::es</t>
   </si>
   <si>
-    <t>Sudur Pashchim</t>
-  </si>
-  <si>
     <t>districts</t>
   </si>
   <si>
-    <t>bhojpur</t>
-  </si>
-  <si>
-    <t>Bhojpur</t>
-  </si>
-  <si>
-    <t>dhankuta</t>
-  </si>
-  <si>
-    <t>Dhankuta</t>
-  </si>
-  <si>
-    <t>ilam</t>
-  </si>
-  <si>
-    <t>Ilam</t>
-  </si>
-  <si>
-    <t>jhapa</t>
-  </si>
-  <si>
-    <t>Jhapa</t>
-  </si>
-  <si>
     <t>traveler</t>
   </si>
   <si>
-    <t>khotang</t>
-  </si>
-  <si>
-    <t>Khotang</t>
-  </si>
-  <si>
-    <t>morang</t>
-  </si>
-  <si>
-    <t>Morang</t>
-  </si>
-  <si>
-    <t>okhaldhunga</t>
-  </si>
-  <si>
-    <t>Okhaldhunga</t>
-  </si>
-  <si>
-    <t>panchthar</t>
-  </si>
-  <si>
-    <t>Panchthar</t>
-  </si>
-  <si>
-    <t>sankhuwasabha</t>
-  </si>
-  <si>
-    <t>Sankhuwasabha</t>
-  </si>
-  <si>
-    <t>solukhumbu</t>
-  </si>
-  <si>
-    <t>Solukhumbu</t>
-  </si>
-  <si>
-    <t>sunsari</t>
-  </si>
-  <si>
-    <t>Sunsari</t>
-  </si>
-  <si>
-    <t>taplejung</t>
-  </si>
-  <si>
-    <t>Taplejung</t>
-  </si>
-  <si>
-    <t>terhathum</t>
-  </si>
-  <si>
-    <t>Terhathum</t>
-  </si>
-  <si>
-    <t>udayapur</t>
-  </si>
-  <si>
-    <t>Udayapur</t>
-  </si>
-  <si>
-    <t>saptari</t>
-  </si>
-  <si>
-    <t>Saptari</t>
-  </si>
-  <si>
     <t>last_name</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>siraha</t>
-  </si>
-  <si>
-    <t>Siraha</t>
-  </si>
-  <si>
-    <t>dhanusa</t>
-  </si>
-  <si>
-    <t>Dhanusa</t>
-  </si>
-  <si>
-    <t>mahottari</t>
-  </si>
-  <si>
-    <t>Mahottari</t>
-  </si>
-  <si>
-    <t>sarlahi</t>
-  </si>
-  <si>
-    <t>Sarlahi</t>
-  </si>
-  <si>
     <t>label::fr</t>
   </si>
   <si>
-    <t>bara</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Bara</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -428,48 +287,12 @@
     <t>no</t>
   </si>
   <si>
-    <t>parsa</t>
-  </si>
-  <si>
-    <t>Parsa</t>
-  </si>
-  <si>
-    <t>rautahat</t>
-  </si>
-  <si>
-    <t>Rautahat</t>
-  </si>
-  <si>
     <t>nationality</t>
   </si>
   <si>
     <t>Nationality</t>
   </si>
   <si>
-    <t>sindhuli</t>
-  </si>
-  <si>
-    <t>Sindhuli</t>
-  </si>
-  <si>
-    <t>ramechhap</t>
-  </si>
-  <si>
-    <t>Ramechhap</t>
-  </si>
-  <si>
-    <t>dolakha</t>
-  </si>
-  <si>
-    <t>Dolakha</t>
-  </si>
-  <si>
-    <t>bhaktapur</t>
-  </si>
-  <si>
-    <t>Bhaktapur</t>
-  </si>
-  <si>
     <t>lmp_approximations</t>
   </si>
   <si>
@@ -485,90 +308,24 @@
     <t>Other Nationality</t>
   </si>
   <si>
-    <t>dhading</t>
-  </si>
-  <si>
-    <t>Dhading</t>
-  </si>
-  <si>
     <t>upto_3_months_ago</t>
   </si>
   <si>
     <t>Upto 3 Months Ago</t>
   </si>
   <si>
-    <t>kathmandu</t>
-  </si>
-  <si>
-    <t>Kathmandu</t>
-  </si>
-  <si>
-    <t>kavrepalanchok</t>
-  </si>
-  <si>
-    <t>Kavrepalanchok</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
-    <t>lalitpur</t>
-  </si>
-  <si>
-    <t>Lalitpur</t>
-  </si>
-  <si>
-    <t>nuwakot</t>
-  </si>
-  <si>
-    <t>Nuwakot</t>
-  </si>
-  <si>
-    <t>rasuwa</t>
-  </si>
-  <si>
-    <t>Rasuwa</t>
-  </si>
-  <si>
-    <t>sindhupalchok</t>
-  </si>
-  <si>
-    <t>Sindhupalchok</t>
-  </si>
-  <si>
-    <t>chitwan</t>
-  </si>
-  <si>
-    <t>Chitwan</t>
-  </si>
-  <si>
-    <t>makwanpur</t>
-  </si>
-  <si>
-    <t>Makwanpur</t>
-  </si>
-  <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
     <t>Upto 4 Months Ago</t>
   </si>
   <si>
-    <t>baglung</t>
-  </si>
-  <si>
-    <t>Baglung</t>
-  </si>
-  <si>
-    <t>gorkha</t>
-  </si>
-  <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
-    <t>Gorkha</t>
-  </si>
-  <si>
     <t>Between 5 And 6 Months Ago</t>
   </si>
   <si>
@@ -611,87 +368,21 @@
     <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
-    <t>kaski</t>
-  </si>
-  <si>
-    <t>Kaski</t>
-  </si>
-  <si>
     <t>develop_birth_plan</t>
   </si>
   <si>
     <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
-    <t>lamjung</t>
-  </si>
-  <si>
-    <t>Lamjung</t>
-  </si>
-  <si>
-    <t>manang</t>
-  </si>
-  <si>
-    <t>Manang</t>
-  </si>
-  <si>
-    <t>mustang</t>
-  </si>
-  <si>
-    <t>Mustang</t>
-  </si>
-  <si>
     <t>trimester2_choices</t>
   </si>
   <si>
-    <t>myagdi</t>
-  </si>
-  <si>
-    <t>Myagdi</t>
-  </si>
-  <si>
-    <t>nawalpur</t>
-  </si>
-  <si>
-    <t>Nawalpur</t>
-  </si>
-  <si>
-    <t>parbat</t>
-  </si>
-  <si>
-    <t>Parbat</t>
-  </si>
-  <si>
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
     <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
-    <t>syangja</t>
-  </si>
-  <si>
-    <t>Syangja</t>
-  </si>
-  <si>
-    <t>tanahun</t>
-  </si>
-  <si>
-    <t>Tanahun</t>
-  </si>
-  <si>
-    <t>kapilvastu</t>
-  </si>
-  <si>
-    <t>Kapilvastu</t>
-  </si>
-  <si>
-    <t>parasi</t>
-  </si>
-  <si>
-    <t>Parasi</t>
-  </si>
-  <si>
     <t>conditions</t>
   </si>
   <si>
@@ -701,222 +392,48 @@
     <t>Heart condition</t>
   </si>
   <si>
-    <t>rupandehi</t>
-  </si>
-  <si>
-    <t>Rupandehi</t>
-  </si>
-  <si>
     <t>asthma</t>
   </si>
   <si>
     <t>Asthma</t>
   </si>
   <si>
-    <t>arghakhanchi</t>
-  </si>
-  <si>
-    <t>Arghakhanchi</t>
-  </si>
-  <si>
-    <t>gulmi</t>
-  </si>
-  <si>
-    <t>Gulmi</t>
-  </si>
-  <si>
-    <t>palpa</t>
-  </si>
-  <si>
-    <t>Palpa</t>
-  </si>
-  <si>
     <t>high_blood_pressure</t>
   </si>
   <si>
     <t>High blood pressure</t>
   </si>
   <si>
-    <t>dang</t>
-  </si>
-  <si>
-    <t>Dang</t>
-  </si>
-  <si>
-    <t>pyuthan</t>
-  </si>
-  <si>
-    <t>Pyuthan</t>
-  </si>
-  <si>
-    <t>rolpa</t>
-  </si>
-  <si>
-    <t>Rolpa</t>
-  </si>
-  <si>
     <t>known_diabetes</t>
   </si>
   <si>
     <t>Known diabetes</t>
   </si>
   <si>
-    <t>rukum_e</t>
-  </si>
-  <si>
-    <t>Rukum East</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
-    <t>banke</t>
-  </si>
-  <si>
-    <t>Banke</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>bardiya</t>
-  </si>
-  <si>
-    <t>Bardiya</t>
-  </si>
-  <si>
-    <t>rukum_w</t>
-  </si>
-  <si>
-    <t>Rukum West</t>
-  </si>
-  <si>
-    <t>salyan</t>
-  </si>
-  <si>
-    <t>Salyan</t>
-  </si>
-  <si>
-    <t>dolpa</t>
-  </si>
-  <si>
-    <t>Dolpa</t>
-  </si>
-  <si>
-    <t>humla</t>
-  </si>
-  <si>
-    <t>Humla</t>
-  </si>
-  <si>
     <t>hiv_statuses</t>
   </si>
   <si>
     <t>patient_uuid</t>
   </si>
   <si>
-    <t>jumla</t>
-  </si>
-  <si>
-    <t>Jumla</t>
-  </si>
-  <si>
     <t>known</t>
   </si>
   <si>
-    <t>kalikot</t>
-  </si>
-  <si>
-    <t>Kalikot</t>
-  </si>
-  <si>
-    <t>mugu</t>
-  </si>
-  <si>
-    <t>Mugu</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>surkhet</t>
-  </si>
-  <si>
-    <t>Surkhet</t>
-  </si>
-  <si>
-    <t>dailekh</t>
-  </si>
-  <si>
-    <t>Dailekh</t>
-  </si>
-  <si>
-    <t>jajarkot</t>
-  </si>
-  <si>
-    <t>Jajarkot</t>
-  </si>
-  <si>
-    <t>kailali</t>
-  </si>
-  <si>
-    <t>Kailali</t>
-  </si>
-  <si>
-    <t>achham</t>
-  </si>
-  <si>
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>Achham</t>
-  </si>
-  <si>
     <t>fp_methods</t>
   </si>
   <si>
-    <t>doti</t>
-  </si>
-  <si>
-    <t>Doti</t>
-  </si>
-  <si>
-    <t>bajhang</t>
-  </si>
-  <si>
-    <t>Bajhang</t>
-  </si>
-  <si>
-    <t>bajura</t>
-  </si>
-  <si>
-    <t>Bajura</t>
-  </si>
-  <si>
-    <t>kanchanpur</t>
-  </si>
-  <si>
-    <t>Kanchanpur</t>
-  </si>
-  <si>
-    <t>dadeldhura</t>
-  </si>
-  <si>
-    <t>Dadeldhura</t>
-  </si>
-  <si>
-    <t>baitadi</t>
-  </si>
-  <si>
-    <t>Baitadi</t>
-  </si>
-  <si>
-    <t>darchula</t>
-  </si>
-  <si>
-    <t>Darchula</t>
-  </si>
-  <si>
     <t>Combined oral contraceptives</t>
   </si>
   <si>
@@ -1298,109 +815,550 @@
     <t>Office Address</t>
   </si>
   <si>
-    <t>Date d'arrivée au Népal</t>
-  </si>
-  <si>
-    <t>Nom des compagnies aériennes</t>
-  </si>
-  <si>
-    <t>Numéro de vol.</t>
-  </si>
-  <si>
-    <t>N ° de siège</t>
-  </si>
-  <si>
-    <t>Pays / lieux visités au cours des 14 derniers jours</t>
-  </si>
-  <si>
-    <t>PAS DE LABEL</t>
-  </si>
-  <si>
-    <t>3. Hébergement</t>
-  </si>
-  <si>
-    <t>S'il vous plaît indiquer votre logement.</t>
-  </si>
-  <si>
-    <t>Précisez le nom Hôtel</t>
-  </si>
-  <si>
-    <t>Spécifiez un autre lieu de séjour</t>
-  </si>
-  <si>
-    <t>Municipalité</t>
-  </si>
-  <si>
-    <t>Ward pas.</t>
-  </si>
-  <si>
-    <t>téléphone fixe</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>contacts locaux</t>
-  </si>
-  <si>
-    <t>Nom du superviseur</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Bureau</t>
-  </si>
-  <si>
-    <t>Téléphone</t>
-  </si>
-  <si>
-    <t>Adresse de bureau</t>
-  </si>
-  <si>
-    <t>Rempli à</t>
-  </si>
-  <si>
-    <t>2. Historique du voyage</t>
-  </si>
-  <si>
-    <t>Numéro du domicile</t>
-  </si>
-  <si>
-    <t>Numéro mobile</t>
-  </si>
-  <si>
-    <t>Chambre partagée avec</t>
-  </si>
-  <si>
-    <t>Relation avec les contacts locaux</t>
-  </si>
-  <si>
-    <t>Détails sur l'emploi</t>
-  </si>
-  <si>
-    <t>label::sh</t>
-  </si>
-  <si>
-    <t>Hongu</t>
-  </si>
-  <si>
-    <t>Kwete</t>
-  </si>
-  <si>
-    <t>Murume</t>
-  </si>
-  <si>
-    <t>Mukadzi</t>
-  </si>
-  <si>
-    <t>Hotera</t>
-  </si>
-  <si>
-    <t>Pamusha pake</t>
-  </si>
-  <si>
-    <t>Imwe Nzvimbo</t>
+    <t>Harare</t>
+  </si>
+  <si>
+    <t>Bulawayo</t>
+  </si>
+  <si>
+    <t>Matebeleland South</t>
+  </si>
+  <si>
+    <t>Matebeleland North</t>
+  </si>
+  <si>
+    <t>Midlands</t>
+  </si>
+  <si>
+    <t>Masvingo</t>
+  </si>
+  <si>
+    <t>Manicaland</t>
+  </si>
+  <si>
+    <t>Mashonaland West</t>
+  </si>
+  <si>
+    <t>Mashonaland East</t>
+  </si>
+  <si>
+    <t>Mashonaland Central</t>
+  </si>
+  <si>
+    <t>Buhera District</t>
+  </si>
+  <si>
+    <t>Chimanimani District</t>
+  </si>
+  <si>
+    <t>Chipinge District</t>
+  </si>
+  <si>
+    <t>Makoni District</t>
+  </si>
+  <si>
+    <t>Mutare District</t>
+  </si>
+  <si>
+    <t>Mutasa District</t>
+  </si>
+  <si>
+    <t>Nyanga District</t>
+  </si>
+  <si>
+    <t>buhera</t>
+  </si>
+  <si>
+    <t>chimanimani</t>
+  </si>
+  <si>
+    <t>chipinge</t>
+  </si>
+  <si>
+    <t>makoni</t>
+  </si>
+  <si>
+    <t>mutare</t>
+  </si>
+  <si>
+    <t>mutasa</t>
+  </si>
+  <si>
+    <t>nyanga</t>
+  </si>
+  <si>
+    <t>Bindura</t>
+  </si>
+  <si>
+    <t>Guruve</t>
+  </si>
+  <si>
+    <t>Mazowe</t>
+  </si>
+  <si>
+    <t>Mbire</t>
+  </si>
+  <si>
+    <t>Mount Darwin</t>
+  </si>
+  <si>
+    <t>Muzarabani</t>
+  </si>
+  <si>
+    <t>Rushinga</t>
+  </si>
+  <si>
+    <t>Shamva</t>
+  </si>
+  <si>
+    <t>bindura</t>
+  </si>
+  <si>
+    <t>guruve</t>
+  </si>
+  <si>
+    <t>mazowe</t>
+  </si>
+  <si>
+    <t>mbire</t>
+  </si>
+  <si>
+    <t>muzarabani</t>
+  </si>
+  <si>
+    <t>rushinga</t>
+  </si>
+  <si>
+    <t>shamva</t>
+  </si>
+  <si>
+    <t>mount_darwin</t>
+  </si>
+  <si>
+    <t>Chikomba</t>
+  </si>
+  <si>
+    <t>Goromonzi</t>
+  </si>
+  <si>
+    <t>Marondera</t>
+  </si>
+  <si>
+    <t>Mudzi</t>
+  </si>
+  <si>
+    <t>Murehwa</t>
+  </si>
+  <si>
+    <t>Mutoko</t>
+  </si>
+  <si>
+    <t>Seke</t>
+  </si>
+  <si>
+    <t>UMP (Uzumba-Maramba-Pfungwe)</t>
+  </si>
+  <si>
+    <t>Wedza (Hwedza)</t>
+  </si>
+  <si>
+    <t>chikomba</t>
+  </si>
+  <si>
+    <t>goromonzi</t>
+  </si>
+  <si>
+    <t>marondera</t>
+  </si>
+  <si>
+    <t>mudzi</t>
+  </si>
+  <si>
+    <t>murehwa</t>
+  </si>
+  <si>
+    <t>mutoko</t>
+  </si>
+  <si>
+    <t>seke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ump </t>
+  </si>
+  <si>
+    <t>wedza</t>
+  </si>
+  <si>
+    <t>Chegutu</t>
+  </si>
+  <si>
+    <t>Hurungwe</t>
+  </si>
+  <si>
+    <t>Kariba</t>
+  </si>
+  <si>
+    <t>Makonde</t>
+  </si>
+  <si>
+    <t>Mhondoro-Ngezi</t>
+  </si>
+  <si>
+    <t>Sanyati</t>
+  </si>
+  <si>
+    <t>Zvimba</t>
+  </si>
+  <si>
+    <t>chegutu</t>
+  </si>
+  <si>
+    <t>hurungwe</t>
+  </si>
+  <si>
+    <t>kariba</t>
+  </si>
+  <si>
+    <t>makonde</t>
+  </si>
+  <si>
+    <t>sanyati</t>
+  </si>
+  <si>
+    <t>zvimba</t>
+  </si>
+  <si>
+    <t>mhondoro</t>
+  </si>
+  <si>
+    <t>Bikita</t>
+  </si>
+  <si>
+    <t>Chiredzi</t>
+  </si>
+  <si>
+    <t>Chivi</t>
+  </si>
+  <si>
+    <t>Gutu</t>
+  </si>
+  <si>
+    <t>Mwenezi</t>
+  </si>
+  <si>
+    <t>Zaka</t>
+  </si>
+  <si>
+    <t>bikita</t>
+  </si>
+  <si>
+    <t>chiredzi</t>
+  </si>
+  <si>
+    <t>chivi</t>
+  </si>
+  <si>
+    <t>gutu</t>
+  </si>
+  <si>
+    <t>masvingo</t>
+  </si>
+  <si>
+    <t>mwenezi</t>
+  </si>
+  <si>
+    <t>zaka</t>
+  </si>
+  <si>
+    <t>Binga</t>
+  </si>
+  <si>
+    <t>Bubi</t>
+  </si>
+  <si>
+    <t>Hwange</t>
+  </si>
+  <si>
+    <t>Lupane</t>
+  </si>
+  <si>
+    <t>Nkayi</t>
+  </si>
+  <si>
+    <t>Tsholotsho</t>
+  </si>
+  <si>
+    <t>Umguza</t>
+  </si>
+  <si>
+    <t>binga</t>
+  </si>
+  <si>
+    <t>bubi</t>
+  </si>
+  <si>
+    <t>hwange</t>
+  </si>
+  <si>
+    <t>lupane</t>
+  </si>
+  <si>
+    <t>nkayi</t>
+  </si>
+  <si>
+    <t>tsholotsho</t>
+  </si>
+  <si>
+    <t>umguza</t>
+  </si>
+  <si>
+    <t>Beitbridge</t>
+  </si>
+  <si>
+    <t>Bulilima</t>
+  </si>
+  <si>
+    <t>Gwanda</t>
+  </si>
+  <si>
+    <t>Insiza</t>
+  </si>
+  <si>
+    <t>Mangwe</t>
+  </si>
+  <si>
+    <t>Matobo</t>
+  </si>
+  <si>
+    <t>Umzingwane</t>
+  </si>
+  <si>
+    <t>beitbridge</t>
+  </si>
+  <si>
+    <t>bulilima</t>
+  </si>
+  <si>
+    <t>gwanda</t>
+  </si>
+  <si>
+    <t>insiza</t>
+  </si>
+  <si>
+    <t>mangwe</t>
+  </si>
+  <si>
+    <t>matobo</t>
+  </si>
+  <si>
+    <t>umzingwane</t>
+  </si>
+  <si>
+    <t>Chirumhanzu</t>
+  </si>
+  <si>
+    <t>Gokwe North</t>
+  </si>
+  <si>
+    <t>Gokwe South</t>
+  </si>
+  <si>
+    <t>Gweru</t>
+  </si>
+  <si>
+    <t>Kwekwe</t>
+  </si>
+  <si>
+    <t>Mberengwa</t>
+  </si>
+  <si>
+    <t>Shurugwi</t>
+  </si>
+  <si>
+    <t>Zvishavane</t>
+  </si>
+  <si>
+    <t>chirumhanzu</t>
+  </si>
+  <si>
+    <t>gweru</t>
+  </si>
+  <si>
+    <t>kwekwe</t>
+  </si>
+  <si>
+    <t>mberengwa</t>
+  </si>
+  <si>
+    <t>shurugwi</t>
+  </si>
+  <si>
+    <t>zvishavane</t>
+  </si>
+  <si>
+    <t>gokwe_north</t>
+  </si>
+  <si>
+    <t>gokwe_south</t>
+  </si>
+  <si>
+    <t>wards</t>
+  </si>
+  <si>
+    <t>Charehwa A</t>
+  </si>
+  <si>
+    <t>Charehwa B</t>
+  </si>
+  <si>
+    <t>Chimoyo A</t>
+  </si>
+  <si>
+    <t>Chimoyo B</t>
+  </si>
+  <si>
+    <t>Chimoyo C</t>
+  </si>
+  <si>
+    <t>Chindenga</t>
+  </si>
+  <si>
+    <t>Chiwore</t>
+  </si>
+  <si>
+    <t>Gumbure</t>
+  </si>
+  <si>
+    <t>Kabasa A</t>
+  </si>
+  <si>
+    <t>Kabasa B</t>
+  </si>
+  <si>
+    <t>Kawere</t>
+  </si>
+  <si>
+    <t>Marira</t>
+  </si>
+  <si>
+    <t>Matedza</t>
+  </si>
+  <si>
+    <t>Mawanga</t>
+  </si>
+  <si>
+    <t>Mbudzi A</t>
+  </si>
+  <si>
+    <t>Mbudzi B</t>
+  </si>
+  <si>
+    <t>Mutoko Centre</t>
+  </si>
+  <si>
+    <t>Nyahondo</t>
+  </si>
+  <si>
+    <t>Nyahunure</t>
+  </si>
+  <si>
+    <t>Nyamhanza A</t>
+  </si>
+  <si>
+    <t>Nyamhanza B</t>
+  </si>
+  <si>
+    <t>Nyamuganhu</t>
+  </si>
+  <si>
+    <t>Nyamukapa</t>
+  </si>
+  <si>
+    <t>Nyamutsahuni</t>
+  </si>
+  <si>
+    <t>Nyamuzizi</t>
+  </si>
+  <si>
+    <t>Muzarabani District</t>
+  </si>
+  <si>
+    <t>charehwa_a</t>
+  </si>
+  <si>
+    <t>charehwa_b</t>
+  </si>
+  <si>
+    <t>chimoyo_a</t>
+  </si>
+  <si>
+    <t>chimoyo_b</t>
+  </si>
+  <si>
+    <t>chimoyo_c</t>
+  </si>
+  <si>
+    <t>kabasa_a</t>
+  </si>
+  <si>
+    <t>kabasa_b</t>
+  </si>
+  <si>
+    <t>mbudzi_a</t>
+  </si>
+  <si>
+    <t>mbudzi_b</t>
+  </si>
+  <si>
+    <t>mutoko_centre</t>
+  </si>
+  <si>
+    <t>nyamhanza_a</t>
+  </si>
+  <si>
+    <t>nyamhanza_b</t>
+  </si>
+  <si>
+    <t>muzarabani_district</t>
+  </si>
+  <si>
+    <t>chindenga</t>
+  </si>
+  <si>
+    <t>chiwore</t>
+  </si>
+  <si>
+    <t>gumbure</t>
+  </si>
+  <si>
+    <t>kawere</t>
+  </si>
+  <si>
+    <t>marira</t>
+  </si>
+  <si>
+    <t>matedza</t>
+  </si>
+  <si>
+    <t>mawanga</t>
+  </si>
+  <si>
+    <t>nyahondo</t>
+  </si>
+  <si>
+    <t>nyahunure</t>
+  </si>
+  <si>
+    <t>nyamuganhu</t>
+  </si>
+  <si>
+    <t>nyamukapa</t>
+  </si>
+  <si>
+    <t>nyamutsahuni</t>
+  </si>
+  <si>
+    <t>nyamuzizi</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1691,7 +1649,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1975,33 +1932,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB66"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="28" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="11" max="11" width="73.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="27" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2011,57 +1968,55 @@
       <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="P1" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="Q1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>31</v>
       </c>
+      <c r="T1" s="16"/>
       <c r="U1" s="16"/>
       <c r="V1" s="16"/>
       <c r="W1" s="16"/>
@@ -2069,9 +2024,8 @@
       <c r="Y1" s="16"/>
       <c r="Z1" s="16"/>
       <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>36</v>
       </c>
@@ -2081,15 +2035,15 @@
       <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="G2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="23" t="s">
         <v>50</v>
       </c>
+      <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -2100,7 +2054,7 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
+      <c r="S2" s="25"/>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
       <c r="V2" s="25"/>
@@ -2109,9 +2063,8 @@
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
@@ -2121,7 +2074,7 @@
       <c r="C3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -2131,14 +2084,14 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23" t="s">
+      <c r="N3" s="23" t="s">
         <v>55</v>
       </c>
+      <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
@@ -2147,9 +2100,8 @@
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
@@ -2159,7 +2111,7 @@
       <c r="C4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -2174,7 +2126,7 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
@@ -2183,9 +2135,8 @@
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>36</v>
       </c>
@@ -2195,7 +2146,7 @@
       <c r="C5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -2210,7 +2161,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
@@ -2219,9 +2170,8 @@
       <c r="Y5" s="25"/>
       <c r="Z5" s="25"/>
       <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
@@ -2231,13 +2181,13 @@
       <c r="C6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>62</v>
       </c>
+      <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -2248,7 +2198,7 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
@@ -2257,9 +2207,8 @@
       <c r="Y6" s="25"/>
       <c r="Z6" s="25"/>
       <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -2269,7 +2218,7 @@
       <c r="C7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
@@ -2284,7 +2233,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
@@ -2293,9 +2242,8 @@
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
       <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>52</v>
       </c>
@@ -2305,7 +2253,7 @@
       <c r="C8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="38"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -2320,7 +2268,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
+      <c r="S8" s="25"/>
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
@@ -2329,9 +2277,8 @@
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
       <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
@@ -2365,14 +2312,13 @@
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
       <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>39</v>
@@ -2401,17 +2347,16 @@
       <c r="Y10" s="30"/>
       <c r="Z10" s="30"/>
       <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2437,17 +2382,16 @@
       <c r="Y11" s="30"/>
       <c r="Z11" s="30"/>
       <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2473,17 +2417,16 @@
       <c r="Y12" s="30"/>
       <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
@@ -2509,17 +2452,16 @@
       <c r="Y13" s="30"/>
       <c r="Z13" s="30"/>
       <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
@@ -2545,11 +2487,10 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="30"/>
       <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="30"/>
@@ -2577,17 +2518,16 @@
       <c r="Y15" s="30"/>
       <c r="Z15" s="30"/>
       <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -2602,7 +2542,7 @@
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="S16" s="25"/>
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
@@ -2611,17 +2551,16 @@
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="38"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -2634,11 +2573,11 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="38" t="s">
+      <c r="Q17" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
@@ -2647,13 +2586,12 @@
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -2666,9 +2604,9 @@
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="41"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
       <c r="V18" s="41"/>
@@ -2677,36 +2615,35 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
       <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="43"/>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43" t="s">
-        <v>278</v>
-      </c>
+      <c r="K19" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="43"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
       <c r="O19" s="43"/>
       <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="43"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="45"/>
       <c r="T19" s="45"/>
       <c r="U19" s="45"/>
       <c r="V19" s="45"/>
@@ -2715,11 +2652,10 @@
       <c r="Y19" s="45"/>
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>65</v>
@@ -2727,24 +2663,24 @@
       <c r="C20" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44" t="s">
-        <v>323</v>
-      </c>
+      <c r="K20" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="43"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="43"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="45"/>
       <c r="T20" s="45"/>
       <c r="U20" s="45"/>
       <c r="V20" s="45"/>
@@ -2753,36 +2689,35 @@
       <c r="Y20" s="45"/>
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>330</v>
+        <v>169</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44" t="s">
-        <v>332</v>
-      </c>
+      <c r="K21" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" s="43"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43"/>
       <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="43"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="45"/>
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
       <c r="V21" s="45"/>
@@ -2791,16 +2726,15 @@
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
@@ -2812,7 +2746,7 @@
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
       <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
+      <c r="S22" s="49"/>
       <c r="T22" s="49"/>
       <c r="U22" s="49"/>
       <c r="V22" s="49"/>
@@ -2821,38 +2755,35 @@
       <c r="Y22" s="49"/>
       <c r="Z22" s="49"/>
       <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>352</v>
+        <v>191</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>442</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D23" s="52"/>
       <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
+      <c r="I23" s="52"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="51" t="s">
-        <v>354</v>
-      </c>
+      <c r="N23" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" s="52"/>
       <c r="P23" s="52"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
+      <c r="S23" s="54"/>
       <c r="T23" s="54"/>
       <c r="U23" s="54"/>
       <c r="V23" s="54"/>
@@ -2861,28 +2792,25 @@
       <c r="Y23" s="54"/>
       <c r="Z23" s="54"/>
       <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>355</v>
+        <v>194</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>443</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D24" s="52"/>
       <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="51" t="s">
+      <c r="F24" s="53"/>
+      <c r="G24" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
@@ -2892,7 +2820,7 @@
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
       <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
+      <c r="S24" s="54"/>
       <c r="T24" s="54"/>
       <c r="U24" s="54"/>
       <c r="V24" s="54"/>
@@ -2901,36 +2829,33 @@
       <c r="Y24" s="54"/>
       <c r="Z24" s="54"/>
       <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>357</v>
+        <v>196</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>422</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D25" s="52"/>
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="52"/>
       <c r="N25" s="52"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
       <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
+      <c r="S25" s="57"/>
       <c r="T25" s="57"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
@@ -2939,21 +2864,18 @@
       <c r="Y25" s="57"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>362</v>
+        <v>201</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>423</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D26" s="52"/>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
@@ -2966,9 +2888,9 @@
       <c r="N26" s="52"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="52"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="54"/>
       <c r="T26" s="54"/>
       <c r="U26" s="54"/>
       <c r="V26" s="54"/>
@@ -2977,21 +2899,18 @@
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
       <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>364</v>
+        <v>203</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>424</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D27" s="52"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
@@ -3006,7 +2925,7 @@
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
+      <c r="S27" s="54"/>
       <c r="T27" s="54"/>
       <c r="U27" s="54"/>
       <c r="V27" s="54"/>
@@ -3015,36 +2934,33 @@
       <c r="Y27" s="54"/>
       <c r="Z27" s="54"/>
       <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>366</v>
+        <v>205</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>425</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D28" s="52"/>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
       <c r="O28" s="52"/>
       <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="52"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="57"/>
       <c r="T28" s="57"/>
       <c r="U28" s="57"/>
       <c r="V28" s="57"/>
@@ -3053,36 +2969,33 @@
       <c r="Y28" s="57"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
-        <v>368</v>
+        <v>207</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>369</v>
+        <v>208</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="D29" s="57" t="s">
-        <v>426</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D29" s="52"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
       <c r="O29" s="52"/>
       <c r="P29" s="52"/>
       <c r="Q29" s="52"/>
       <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
+      <c r="S29" s="57"/>
       <c r="T29" s="57"/>
       <c r="U29" s="57"/>
       <c r="V29" s="57"/>
@@ -3091,36 +3004,33 @@
       <c r="Y29" s="57"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>371</v>
+        <v>210</v>
       </c>
       <c r="C30" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>427</v>
-      </c>
+      <c r="D30" s="52"/>
       <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="52"/>
       <c r="N30" s="52"/>
       <c r="O30" s="52"/>
       <c r="P30" s="52"/>
       <c r="Q30" s="52"/>
       <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
+      <c r="S30" s="57"/>
       <c r="T30" s="57"/>
       <c r="U30" s="57"/>
       <c r="V30" s="57"/>
@@ -3129,30 +3039,29 @@
       <c r="Y30" s="57"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="B31" s="58"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="52"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="52"/>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
       <c r="O31" s="52"/>
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
+      <c r="S31" s="57"/>
       <c r="T31" s="57"/>
       <c r="U31" s="57"/>
       <c r="V31" s="57"/>
@@ -3161,30 +3070,29 @@
       <c r="Y31" s="57"/>
       <c r="Z31" s="57"/>
       <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B32" s="58"/>
       <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="52"/>
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
       <c r="O32" s="52"/>
       <c r="P32" s="52"/>
       <c r="Q32" s="52"/>
       <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
+      <c r="S32" s="57"/>
       <c r="T32" s="57"/>
       <c r="U32" s="57"/>
       <c r="V32" s="57"/>
@@ -3193,28 +3101,27 @@
       <c r="Y32" s="57"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="57"/>
-      <c r="AB32" s="57"/>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58"/>
       <c r="B33" s="58"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="52"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="52"/>
       <c r="M33" s="52"/>
       <c r="N33" s="52"/>
       <c r="O33" s="52"/>
       <c r="P33" s="52"/>
       <c r="Q33" s="52"/>
       <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
+      <c r="S33" s="57"/>
       <c r="T33" s="57"/>
       <c r="U33" s="57"/>
       <c r="V33" s="57"/>
@@ -3223,28 +3130,25 @@
       <c r="Y33" s="57"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>373</v>
+        <v>212</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>428</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D34" s="52"/>
       <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="51" t="s">
+      <c r="F34" s="53"/>
+      <c r="G34" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
       <c r="J34" s="52"/>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
@@ -3254,7 +3158,7 @@
       <c r="P34" s="52"/>
       <c r="Q34" s="52"/>
       <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
+      <c r="S34" s="54"/>
       <c r="T34" s="54"/>
       <c r="U34" s="54"/>
       <c r="V34" s="54"/>
@@ -3263,36 +3167,33 @@
       <c r="Y34" s="54"/>
       <c r="Z34" s="54"/>
       <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>377</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>429</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D35" s="52"/>
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
       <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="52"/>
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
       <c r="O35" s="52"/>
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
+      <c r="S35" s="57"/>
       <c r="T35" s="57"/>
       <c r="U35" s="57"/>
       <c r="V35" s="57"/>
@@ -3301,38 +3202,35 @@
       <c r="Y35" s="57"/>
       <c r="Z35" s="57"/>
       <c r="AA35" s="57"/>
-      <c r="AB35" s="57"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>378</v>
+        <v>217</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>430</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D36" s="52"/>
       <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="51"/>
+      <c r="F36" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="52"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="52"/>
       <c r="N36" s="52"/>
       <c r="O36" s="52"/>
       <c r="P36" s="52"/>
       <c r="Q36" s="52"/>
       <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
+      <c r="S36" s="57"/>
       <c r="T36" s="57"/>
       <c r="U36" s="57"/>
       <c r="V36" s="57"/>
@@ -3341,38 +3239,35 @@
       <c r="Y36" s="57"/>
       <c r="Z36" s="57"/>
       <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>381</v>
+        <v>220</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>431</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D37" s="52"/>
       <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="51" t="s">
-        <v>383</v>
-      </c>
+      <c r="F37" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="52"/>
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="52"/>
       <c r="N37" s="52"/>
       <c r="O37" s="52"/>
       <c r="P37" s="52"/>
       <c r="Q37" s="52"/>
       <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
+      <c r="S37" s="57"/>
       <c r="T37" s="57"/>
       <c r="U37" s="57"/>
       <c r="V37" s="57"/>
@@ -3381,38 +3276,35 @@
       <c r="Y37" s="57"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50" t="s">
-        <v>384</v>
+        <v>223</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>385</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D38" s="52"/>
       <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51" t="s">
-        <v>386</v>
-      </c>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="52"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="52"/>
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
       <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
+      <c r="S38" s="57"/>
       <c r="T38" s="57"/>
       <c r="U38" s="57"/>
       <c r="V38" s="57"/>
@@ -3421,40 +3313,37 @@
       <c r="Y38" s="57"/>
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
-      <c r="AB38" s="57"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50" t="s">
-        <v>387</v>
+        <v>226</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>388</v>
+        <v>227</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>389</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>389</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D39" s="52"/>
       <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51" t="s">
-        <v>386</v>
-      </c>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="52"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="51" t="s">
-        <v>390</v>
-      </c>
+      <c r="K39" s="53"/>
+      <c r="L39" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="M39" s="52"/>
       <c r="N39" s="52"/>
       <c r="O39" s="52"/>
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
+      <c r="S39" s="57"/>
       <c r="T39" s="57"/>
       <c r="U39" s="57"/>
       <c r="V39" s="57"/>
@@ -3463,36 +3352,33 @@
       <c r="Y39" s="57"/>
       <c r="Z39" s="57"/>
       <c r="AA39" s="57"/>
-      <c r="AB39" s="57"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>391</v>
+        <v>230</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>432</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D40" s="52"/>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="52"/>
       <c r="M40" s="52"/>
       <c r="N40" s="52"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
       <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
+      <c r="S40" s="57"/>
       <c r="T40" s="57"/>
       <c r="U40" s="57"/>
       <c r="V40" s="57"/>
@@ -3501,36 +3387,33 @@
       <c r="Y40" s="57"/>
       <c r="Z40" s="57"/>
       <c r="AA40" s="57"/>
-      <c r="AB40" s="57"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50" t="s">
-        <v>393</v>
+        <v>232</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>395</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>433</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D41" s="52"/>
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="52"/>
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
       <c r="O41" s="52"/>
       <c r="P41" s="52"/>
       <c r="Q41" s="52"/>
       <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
+      <c r="S41" s="57"/>
       <c r="T41" s="57"/>
       <c r="U41" s="57"/>
       <c r="V41" s="57"/>
@@ -3539,36 +3422,33 @@
       <c r="Y41" s="57"/>
       <c r="Z41" s="57"/>
       <c r="AA41" s="57"/>
-      <c r="AB41" s="57"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>396</v>
+        <v>235</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>397</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>444</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D42" s="52"/>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
       <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="52"/>
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
       <c r="O42" s="52"/>
       <c r="P42" s="52"/>
       <c r="Q42" s="52"/>
       <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
+      <c r="S42" s="57"/>
       <c r="T42" s="57"/>
       <c r="U42" s="57"/>
       <c r="V42" s="57"/>
@@ -3577,36 +3457,33 @@
       <c r="Y42" s="57"/>
       <c r="Z42" s="57"/>
       <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
-        <v>398</v>
+        <v>237</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>399</v>
+        <v>238</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>400</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>434</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D43" s="52"/>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="52"/>
       <c r="M43" s="52"/>
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
+      <c r="S43" s="57"/>
       <c r="T43" s="57"/>
       <c r="U43" s="57"/>
       <c r="V43" s="57"/>
@@ -3615,36 +3492,33 @@
       <c r="Y43" s="57"/>
       <c r="Z43" s="57"/>
       <c r="AA43" s="57"/>
-      <c r="AB43" s="57"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
-        <v>398</v>
+        <v>237</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>401</v>
+        <v>240</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>445</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D44" s="52"/>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
       <c r="G44" s="52"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="52"/>
       <c r="M44" s="52"/>
       <c r="N44" s="52"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
       <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
+      <c r="S44" s="57"/>
       <c r="T44" s="57"/>
       <c r="U44" s="57"/>
       <c r="V44" s="57"/>
@@ -3653,36 +3527,33 @@
       <c r="Y44" s="57"/>
       <c r="Z44" s="57"/>
       <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
-        <v>368</v>
+        <v>207</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>403</v>
+        <v>242</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>404</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>446</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D45" s="52"/>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
       <c r="G45" s="52"/>
       <c r="H45" s="52"/>
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="52"/>
       <c r="M45" s="52"/>
       <c r="N45" s="52"/>
       <c r="O45" s="52"/>
       <c r="P45" s="52"/>
       <c r="Q45" s="52"/>
       <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
+      <c r="S45" s="57"/>
       <c r="T45" s="57"/>
       <c r="U45" s="57"/>
       <c r="V45" s="57"/>
@@ -3691,11 +3562,10 @@
       <c r="Y45" s="57"/>
       <c r="Z45" s="57"/>
       <c r="AA45" s="57"/>
-      <c r="AB45" s="57"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B46" s="50" t="s">
         <v>3</v>
@@ -3703,24 +3573,22 @@
       <c r="C46" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="57" t="s">
-        <v>435</v>
-      </c>
+      <c r="D46" s="52"/>
       <c r="E46" s="52"/>
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="52"/>
       <c r="M46" s="52"/>
       <c r="N46" s="52"/>
       <c r="O46" s="52"/>
       <c r="P46" s="52"/>
       <c r="Q46" s="52"/>
       <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
+      <c r="S46" s="57"/>
       <c r="T46" s="57"/>
       <c r="U46" s="57"/>
       <c r="V46" s="57"/>
@@ -3729,36 +3597,33 @@
       <c r="Y46" s="57"/>
       <c r="Z46" s="57"/>
       <c r="AA46" s="57"/>
-      <c r="AB46" s="57"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
-        <v>398</v>
+        <v>237</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>405</v>
+        <v>244</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>445</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D47" s="52"/>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="52"/>
       <c r="N47" s="52"/>
       <c r="O47" s="52"/>
       <c r="P47" s="52"/>
       <c r="Q47" s="52"/>
       <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
+      <c r="S47" s="57"/>
       <c r="T47" s="57"/>
       <c r="U47" s="57"/>
       <c r="V47" s="57"/>
@@ -3767,30 +3632,29 @@
       <c r="Y47" s="57"/>
       <c r="Z47" s="57"/>
       <c r="AA47" s="57"/>
-      <c r="AB47" s="57"/>
-    </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="B48" s="58"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="52"/>
       <c r="F48" s="52"/>
       <c r="G48" s="52"/>
       <c r="H48" s="52"/>
       <c r="I48" s="52"/>
       <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="52"/>
       <c r="M48" s="52"/>
       <c r="N48" s="52"/>
       <c r="O48" s="52"/>
       <c r="P48" s="52"/>
       <c r="Q48" s="52"/>
       <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
+      <c r="S48" s="57"/>
       <c r="T48" s="57"/>
       <c r="U48" s="57"/>
       <c r="V48" s="57"/>
@@ -3799,30 +3663,29 @@
       <c r="Y48" s="57"/>
       <c r="Z48" s="57"/>
       <c r="AA48" s="57"/>
-      <c r="AB48" s="57"/>
-    </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B49" s="58"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
       <c r="G49" s="52"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="52"/>
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
       <c r="O49" s="52"/>
       <c r="P49" s="52"/>
       <c r="Q49" s="52"/>
       <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
+      <c r="S49" s="57"/>
       <c r="T49" s="57"/>
       <c r="U49" s="57"/>
       <c r="V49" s="57"/>
@@ -3831,16 +3694,15 @@
       <c r="Y49" s="57"/>
       <c r="Z49" s="57"/>
       <c r="AA49" s="57"/>
-      <c r="AB49" s="57"/>
-    </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
       <c r="B50" s="59"/>
       <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="52"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52"/>
@@ -3852,7 +3714,7 @@
       <c r="P50" s="52"/>
       <c r="Q50" s="52"/>
       <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
+      <c r="S50" s="60"/>
       <c r="T50" s="60"/>
       <c r="U50" s="60"/>
       <c r="V50" s="60"/>
@@ -3861,28 +3723,25 @@
       <c r="Y50" s="60"/>
       <c r="Z50" s="60"/>
       <c r="AA50" s="60"/>
-      <c r="AB50" s="60"/>
-    </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>406</v>
+        <v>245</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>436</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D51" s="52"/>
       <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="51" t="s">
+      <c r="F51" s="53"/>
+      <c r="G51" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="I51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="52"/>
       <c r="J51" s="52"/>
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
@@ -3892,7 +3751,7 @@
       <c r="P51" s="52"/>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
+      <c r="S51" s="60"/>
       <c r="T51" s="60"/>
       <c r="U51" s="60"/>
       <c r="V51" s="60"/>
@@ -3901,36 +3760,33 @@
       <c r="Y51" s="60"/>
       <c r="Z51" s="60"/>
       <c r="AA51" s="60"/>
-      <c r="AB51" s="60"/>
-    </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50" t="s">
-        <v>368</v>
+        <v>207</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>403</v>
+        <v>242</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="57" t="s">
-        <v>427</v>
-      </c>
+      <c r="D52" s="52"/>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
       <c r="G52" s="52"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="52"/>
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
       <c r="O52" s="52"/>
       <c r="P52" s="52"/>
       <c r="Q52" s="52"/>
       <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
+      <c r="S52" s="57"/>
       <c r="T52" s="57"/>
       <c r="U52" s="57"/>
       <c r="V52" s="57"/>
@@ -3939,11 +3795,10 @@
       <c r="Y52" s="57"/>
       <c r="Z52" s="57"/>
       <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-    </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B53" s="50" t="s">
         <v>3</v>
@@ -3951,24 +3806,22 @@
       <c r="C53" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="57" t="s">
-        <v>435</v>
-      </c>
+      <c r="D53" s="52"/>
       <c r="E53" s="52"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="52"/>
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
       <c r="O53" s="52"/>
       <c r="P53" s="52"/>
       <c r="Q53" s="52"/>
       <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
+      <c r="S53" s="57"/>
       <c r="T53" s="57"/>
       <c r="U53" s="57"/>
       <c r="V53" s="57"/>
@@ -3977,36 +3830,33 @@
       <c r="Y53" s="57"/>
       <c r="Z53" s="57"/>
       <c r="AA53" s="57"/>
-      <c r="AB53" s="57"/>
-    </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="50" t="s">
-        <v>398</v>
+        <v>237</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>405</v>
+        <v>244</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="D54" s="57" t="s">
-        <v>445</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D54" s="52"/>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
       <c r="G54" s="52"/>
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="52"/>
       <c r="M54" s="52"/>
       <c r="N54" s="52"/>
       <c r="O54" s="52"/>
       <c r="P54" s="52"/>
       <c r="Q54" s="52"/>
       <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
+      <c r="S54" s="57"/>
       <c r="T54" s="57"/>
       <c r="U54" s="57"/>
       <c r="V54" s="57"/>
@@ -4015,36 +3865,33 @@
       <c r="Y54" s="57"/>
       <c r="Z54" s="57"/>
       <c r="AA54" s="57"/>
-      <c r="AB54" s="57"/>
-    </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>408</v>
+        <v>247</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>447</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D55" s="52"/>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="52"/>
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
       <c r="O55" s="52"/>
       <c r="P55" s="52"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
+      <c r="S55" s="57"/>
       <c r="T55" s="57"/>
       <c r="U55" s="57"/>
       <c r="V55" s="57"/>
@@ -4053,30 +3900,29 @@
       <c r="Y55" s="57"/>
       <c r="Z55" s="57"/>
       <c r="AA55" s="57"/>
-      <c r="AB55" s="57"/>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="50" t="s">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="B56" s="58"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
       <c r="G56" s="52"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="52"/>
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
       <c r="O56" s="52"/>
       <c r="P56" s="52"/>
       <c r="Q56" s="52"/>
       <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
+      <c r="S56" s="57"/>
       <c r="T56" s="57"/>
       <c r="U56" s="57"/>
       <c r="V56" s="57"/>
@@ -4085,18 +3931,17 @@
       <c r="Y56" s="57"/>
       <c r="Z56" s="57"/>
       <c r="AA56" s="57"/>
-      <c r="AB56" s="57"/>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="50" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B57" s="50"/>
       <c r="C57" s="51"/>
-      <c r="D57" s="57"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="52"/>
       <c r="H57" s="52"/>
       <c r="I57" s="52"/>
       <c r="J57" s="52"/>
@@ -4108,7 +3953,7 @@
       <c r="P57" s="52"/>
       <c r="Q57" s="52"/>
       <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
+      <c r="S57" s="60"/>
       <c r="T57" s="60"/>
       <c r="U57" s="60"/>
       <c r="V57" s="60"/>
@@ -4117,16 +3962,15 @@
       <c r="Y57" s="60"/>
       <c r="Z57" s="60"/>
       <c r="AA57" s="60"/>
-      <c r="AB57" s="60"/>
-    </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="50"/>
       <c r="B58" s="50"/>
       <c r="C58" s="51"/>
-      <c r="D58" s="57"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="52"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
@@ -4138,7 +3982,7 @@
       <c r="P58" s="52"/>
       <c r="Q58" s="52"/>
       <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
+      <c r="S58" s="60"/>
       <c r="T58" s="60"/>
       <c r="U58" s="60"/>
       <c r="V58" s="60"/>
@@ -4147,28 +3991,25 @@
       <c r="Y58" s="60"/>
       <c r="Z58" s="60"/>
       <c r="AA58" s="60"/>
-      <c r="AB58" s="60"/>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>410</v>
+        <v>249</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>411</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>448</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D59" s="52"/>
       <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="51" t="s">
+      <c r="F59" s="53"/>
+      <c r="G59" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="I59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="52"/>
       <c r="J59" s="52"/>
       <c r="K59" s="52"/>
       <c r="L59" s="52"/>
@@ -4178,7 +4019,7 @@
       <c r="P59" s="52"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
+      <c r="S59" s="60"/>
       <c r="T59" s="60"/>
       <c r="U59" s="60"/>
       <c r="V59" s="60"/>
@@ -4187,24 +4028,21 @@
       <c r="Y59" s="60"/>
       <c r="Z59" s="60"/>
       <c r="AA59" s="60"/>
-      <c r="AB59" s="60"/>
-    </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>413</v>
-      </c>
-      <c r="D60" s="57" t="s">
-        <v>437</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="D60" s="52"/>
       <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="52"/>
       <c r="H60" s="52"/>
       <c r="I60" s="52"/>
       <c r="J60" s="52"/>
@@ -4216,7 +4054,7 @@
       <c r="P60" s="52"/>
       <c r="Q60" s="52"/>
       <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
+      <c r="S60" s="60"/>
       <c r="T60" s="60"/>
       <c r="U60" s="60"/>
       <c r="V60" s="60"/>
@@ -4225,24 +4063,21 @@
       <c r="Y60" s="60"/>
       <c r="Z60" s="60"/>
       <c r="AA60" s="60"/>
-      <c r="AB60" s="60"/>
-    </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>414</v>
+        <v>253</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="D61" s="57" t="s">
-        <v>438</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D61" s="52"/>
       <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="52"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52"/>
@@ -4254,7 +4089,7 @@
       <c r="P61" s="52"/>
       <c r="Q61" s="52"/>
       <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
+      <c r="S61" s="60"/>
       <c r="T61" s="60"/>
       <c r="U61" s="60"/>
       <c r="V61" s="60"/>
@@ -4263,24 +4098,21 @@
       <c r="Y61" s="60"/>
       <c r="Z61" s="60"/>
       <c r="AA61" s="60"/>
-      <c r="AB61" s="60"/>
-    </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>416</v>
+        <v>255</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="D62" s="57" t="s">
-        <v>439</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D62" s="52"/>
       <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="52"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52"/>
@@ -4292,7 +4124,7 @@
       <c r="P62" s="52"/>
       <c r="Q62" s="52"/>
       <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
+      <c r="S62" s="60"/>
       <c r="T62" s="60"/>
       <c r="U62" s="60"/>
       <c r="V62" s="60"/>
@@ -4301,24 +4133,21 @@
       <c r="Y62" s="60"/>
       <c r="Z62" s="60"/>
       <c r="AA62" s="60"/>
-      <c r="AB62" s="60"/>
-    </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>418</v>
+        <v>257</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="D63" s="57" t="s">
-        <v>440</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D63" s="52"/>
       <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="52"/>
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
       <c r="J63" s="52"/>
@@ -4330,7 +4159,7 @@
       <c r="P63" s="52"/>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
+      <c r="S63" s="60"/>
       <c r="T63" s="60"/>
       <c r="U63" s="60"/>
       <c r="V63" s="60"/>
@@ -4339,36 +4168,33 @@
       <c r="Y63" s="60"/>
       <c r="Z63" s="60"/>
       <c r="AA63" s="60"/>
-      <c r="AB63" s="60"/>
-    </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>420</v>
+        <v>259</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>421</v>
-      </c>
-      <c r="D64" s="57" t="s">
-        <v>441</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="D64" s="52"/>
       <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="51"/>
       <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
+      <c r="I64" s="52"/>
       <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="52"/>
       <c r="M64" s="52"/>
       <c r="N64" s="52"/>
       <c r="O64" s="52"/>
       <c r="P64" s="52"/>
       <c r="Q64" s="52"/>
       <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
+      <c r="S64" s="60"/>
       <c r="T64" s="60"/>
       <c r="U64" s="60"/>
       <c r="V64" s="60"/>
@@ -4377,36 +4203,33 @@
       <c r="Y64" s="60"/>
       <c r="Z64" s="60"/>
       <c r="AA64" s="60"/>
-      <c r="AB64" s="60"/>
-    </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="50" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>388</v>
+        <v>227</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>389</v>
-      </c>
-      <c r="D65" s="57" t="s">
-        <v>389</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D65" s="52"/>
       <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="51"/>
       <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
+      <c r="I65" s="52"/>
       <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="52"/>
       <c r="M65" s="52"/>
       <c r="N65" s="52"/>
       <c r="O65" s="52"/>
       <c r="P65" s="52"/>
       <c r="Q65" s="52"/>
       <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
+      <c r="S65" s="60"/>
       <c r="T65" s="60"/>
       <c r="U65" s="60"/>
       <c r="V65" s="60"/>
@@ -4415,18 +4238,17 @@
       <c r="Y65" s="60"/>
       <c r="Z65" s="60"/>
       <c r="AA65" s="60"/>
-      <c r="AB65" s="60"/>
-    </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="50" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B66" s="50"/>
       <c r="C66" s="51"/>
-      <c r="D66" s="57"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="52"/>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
       <c r="J66" s="52"/>
@@ -4438,7 +4260,7 @@
       <c r="P66" s="52"/>
       <c r="Q66" s="52"/>
       <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
+      <c r="S66" s="60"/>
       <c r="T66" s="60"/>
       <c r="U66" s="60"/>
       <c r="V66" s="60"/>
@@ -4447,11 +4269,10 @@
       <c r="Y66" s="60"/>
       <c r="Z66" s="60"/>
       <c r="AA66" s="60"/>
-      <c r="AB66" s="60"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F66">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E66">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4464,20 +4285,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q258"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79:A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="17" width="45.85546875" customWidth="1"/>
+    <col min="2" max="16" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4487,11 +4308,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -4504,9 +4325,8 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -4516,9 +4336,7 @@
       <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>450</v>
-      </c>
+      <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -4531,9 +4349,8 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
@@ -4543,11 +4360,8 @@
       <c r="C3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -4557,9 +4371,7 @@
       <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>452</v>
-      </c>
+      <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -4572,9 +4384,8 @@
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -4584,9 +4395,7 @@
       <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
-        <v>453</v>
-      </c>
+      <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
@@ -4599,9 +4408,8 @@
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
       <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>47</v>
       </c>
@@ -4611,11 +4419,8 @@
       <c r="C6" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>47</v>
       </c>
@@ -4625,11 +4430,8 @@
       <c r="C7" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>47</v>
       </c>
@@ -4639,11 +4441,8 @@
       <c r="C8" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -4651,13 +4450,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>74</v>
       </c>
@@ -4665,13 +4461,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>74</v>
       </c>
@@ -4679,13 +4472,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>74</v>
       </c>
@@ -4693,13 +4483,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>74</v>
       </c>
@@ -4707,13 +4494,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>74</v>
       </c>
@@ -4721,13 +4505,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>74</v>
       </c>
@@ -4735,2150 +4516,1323 @@
         <v>7</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="B16" s="47">
+        <v>8</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="B17" s="47">
+        <v>9</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="21">
+        <v>74</v>
+      </c>
+      <c r="B18" s="47">
+        <v>10</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="C63" t="s">
+        <v>352</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64" t="s">
+        <v>360</v>
+      </c>
+      <c r="D64">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="21">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D65">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="21">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="C66" t="s">
+        <v>362</v>
+      </c>
+      <c r="D66">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" s="21">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="C67" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="21">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" t="s">
+        <v>364</v>
+      </c>
+      <c r="D68">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="21">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="C69" t="s">
+        <v>365</v>
+      </c>
+      <c r="D69">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="21">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" t="s">
+        <v>366</v>
+      </c>
+      <c r="D70">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E54" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E56" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E59" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E60" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E61" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="21">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="C71" t="s">
+        <v>374</v>
+      </c>
+      <c r="D71">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" s="21">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="C72" t="s">
+        <v>375</v>
+      </c>
+      <c r="D72">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E64" s="21">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="C73" t="s">
+        <v>376</v>
+      </c>
+      <c r="D73">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E65" s="21">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" t="s">
+        <v>377</v>
+      </c>
+      <c r="D74">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E66" s="21">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="C75" t="s">
+        <v>378</v>
+      </c>
+      <c r="D75">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67" s="21">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C76" t="s">
+        <v>379</v>
+      </c>
+      <c r="D76">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E68" s="21">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="C77" t="s">
+        <v>380</v>
+      </c>
+      <c r="D77">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E69" s="21">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C78" t="s">
+        <v>381</v>
+      </c>
+      <c r="D78">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E70" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E71" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E72" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E73" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E74" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E75" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E76" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E77" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E78" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E79" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E80" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E81" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E82" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E83" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E84" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E85" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E86" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E87" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E88" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E89" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E90" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E91" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E92" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="47"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="47"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="47"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-    </row>
-    <row r="97" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="47"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-    </row>
-    <row r="98" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="47"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
-    </row>
-    <row r="99" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="47"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-    </row>
-    <row r="100" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="47"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-    </row>
-    <row r="101" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="47"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-    </row>
-    <row r="102" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="47"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-    </row>
-    <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="47"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-    </row>
-    <row r="104" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="47"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-    </row>
-    <row r="105" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="47"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
-    </row>
-    <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="47"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="48"/>
-    </row>
-    <row r="107" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="47"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-    </row>
-    <row r="108" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="47"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-    </row>
-    <row r="109" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="47"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-    </row>
-    <row r="110" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="47"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
-    </row>
-    <row r="111" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="47"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-    </row>
-    <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="47"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-    </row>
-    <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="47"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-    </row>
-    <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="47"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-    </row>
-    <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="47"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-    </row>
-    <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="47"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-    </row>
-    <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="47"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
-    </row>
-    <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="47"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-    </row>
-    <row r="119" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="47"/>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48"/>
-    </row>
-    <row r="120" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="47"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-    </row>
-    <row r="121" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="47"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48"/>
-    </row>
-    <row r="122" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="47"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-    </row>
-    <row r="123" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="47"/>
-      <c r="C123" s="48"/>
-      <c r="D123" s="48"/>
-    </row>
-    <row r="124" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="47"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="48"/>
-    </row>
-    <row r="125" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="47"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="48"/>
-    </row>
-    <row r="126" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="47"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="48"/>
-    </row>
-    <row r="127" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="47"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48"/>
-    </row>
-    <row r="128" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="47"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="48"/>
-    </row>
-    <row r="129" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="47"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="48"/>
-    </row>
-    <row r="130" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="47"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="48"/>
-    </row>
-    <row r="131" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="47"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="48"/>
-    </row>
-    <row r="132" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="47"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="48"/>
-    </row>
-    <row r="133" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="47"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="48"/>
-    </row>
-    <row r="134" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="47"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="48"/>
-    </row>
-    <row r="135" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="47"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="48"/>
-    </row>
-    <row r="136" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="47"/>
-      <c r="C136" s="48"/>
-      <c r="D136" s="48"/>
-    </row>
-    <row r="137" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="47"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="48"/>
-    </row>
-    <row r="138" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="47"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="48"/>
-    </row>
-    <row r="139" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="47"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="48"/>
-    </row>
-    <row r="140" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="47"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="48"/>
-    </row>
-    <row r="141" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="47"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="48"/>
-    </row>
-    <row r="142" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="47"/>
-      <c r="C142" s="48"/>
-      <c r="D142" s="48"/>
-    </row>
-    <row r="143" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="47"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="48"/>
-    </row>
-    <row r="144" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="47"/>
-      <c r="C144" s="48"/>
-      <c r="D144" s="48"/>
-    </row>
-    <row r="145" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="47"/>
-      <c r="C145" s="48"/>
-      <c r="D145" s="48"/>
-    </row>
-    <row r="146" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="47"/>
-      <c r="C146" s="48"/>
-      <c r="D146" s="48"/>
-    </row>
-    <row r="147" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="47"/>
-      <c r="C147" s="48"/>
-      <c r="D147" s="48"/>
-    </row>
-    <row r="148" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="47"/>
-      <c r="C148" s="48"/>
-      <c r="D148" s="48"/>
-    </row>
-    <row r="149" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="47"/>
-      <c r="C149" s="48"/>
-      <c r="D149" s="48"/>
-    </row>
-    <row r="150" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="47"/>
-      <c r="C150" s="48"/>
-      <c r="D150" s="48"/>
-    </row>
-    <row r="151" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="47"/>
-      <c r="C151" s="48"/>
-      <c r="D151" s="48"/>
-    </row>
-    <row r="152" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="47"/>
-      <c r="C152" s="48"/>
-      <c r="D152" s="48"/>
-    </row>
-    <row r="153" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="47"/>
-      <c r="C153" s="48"/>
-      <c r="D153" s="48"/>
-    </row>
-    <row r="154" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="47"/>
-      <c r="C154" s="48"/>
-      <c r="D154" s="48"/>
-    </row>
-    <row r="155" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="47"/>
-      <c r="C155" s="48"/>
-      <c r="D155" s="48"/>
-    </row>
-    <row r="156" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="47"/>
-      <c r="C156" s="48"/>
-      <c r="D156" s="48"/>
-    </row>
-    <row r="157" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="47"/>
-      <c r="C157" s="48"/>
-      <c r="D157" s="48"/>
-    </row>
-    <row r="158" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="47"/>
-      <c r="C158" s="48"/>
-      <c r="D158" s="48"/>
-    </row>
-    <row r="159" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="47"/>
-      <c r="C159" s="48"/>
-      <c r="D159" s="48"/>
-    </row>
-    <row r="160" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="47"/>
-      <c r="C160" s="48"/>
-      <c r="D160" s="48"/>
-    </row>
-    <row r="161" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="47"/>
-      <c r="C161" s="48"/>
-      <c r="D161" s="48"/>
-    </row>
-    <row r="162" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="47"/>
-      <c r="C162" s="48"/>
-      <c r="D162" s="48"/>
-    </row>
-    <row r="163" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="47"/>
-      <c r="C163" s="48"/>
-      <c r="D163" s="48"/>
-    </row>
-    <row r="164" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="47"/>
-      <c r="C164" s="48"/>
-      <c r="D164" s="48"/>
-    </row>
-    <row r="165" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="47"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="48"/>
-    </row>
-    <row r="166" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="47"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48"/>
-    </row>
-    <row r="167" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="47"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="48"/>
-    </row>
-    <row r="168" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="47"/>
-      <c r="C168" s="48"/>
-      <c r="D168" s="48"/>
-    </row>
-    <row r="169" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="47"/>
-      <c r="C169" s="48"/>
-      <c r="D169" s="48"/>
-    </row>
-    <row r="170" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="47"/>
-      <c r="C170" s="48"/>
-      <c r="D170" s="48"/>
-    </row>
-    <row r="171" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="47"/>
-      <c r="C171" s="48"/>
-      <c r="D171" s="48"/>
-    </row>
-    <row r="172" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="47"/>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48"/>
-    </row>
-    <row r="173" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="47"/>
-      <c r="C173" s="48"/>
-      <c r="D173" s="48"/>
-    </row>
-    <row r="174" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="47"/>
-      <c r="C174" s="48"/>
-      <c r="D174" s="48"/>
-    </row>
-    <row r="175" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="47"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48"/>
-    </row>
-    <row r="176" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="47"/>
-      <c r="C176" s="48"/>
-      <c r="D176" s="48"/>
-    </row>
-    <row r="177" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="47"/>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48"/>
-    </row>
-    <row r="178" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="47"/>
-      <c r="C178" s="48"/>
-      <c r="D178" s="48"/>
-    </row>
-    <row r="179" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="47"/>
-      <c r="C179" s="48"/>
-      <c r="D179" s="48"/>
-    </row>
-    <row r="180" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="47"/>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
-    </row>
-    <row r="181" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="47"/>
-      <c r="C181" s="48"/>
-      <c r="D181" s="48"/>
-    </row>
-    <row r="182" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="47"/>
-      <c r="C182" s="48"/>
-      <c r="D182" s="48"/>
-    </row>
-    <row r="183" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="47"/>
-      <c r="C183" s="48"/>
-      <c r="D183" s="48"/>
-    </row>
-    <row r="184" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="47"/>
-      <c r="C184" s="48"/>
-      <c r="D184" s="48"/>
-    </row>
-    <row r="185" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="47"/>
-      <c r="C185" s="48"/>
-      <c r="D185" s="48"/>
-    </row>
-    <row r="186" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="47"/>
-      <c r="C186" s="48"/>
-      <c r="D186" s="48"/>
-    </row>
-    <row r="187" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="47"/>
-      <c r="C187" s="48"/>
-      <c r="D187" s="48"/>
-    </row>
-    <row r="188" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="47"/>
-      <c r="C188" s="48"/>
-      <c r="D188" s="48"/>
-    </row>
-    <row r="189" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="47"/>
-      <c r="C189" s="48"/>
-      <c r="D189" s="48"/>
-    </row>
-    <row r="190" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="47"/>
-      <c r="C190" s="48"/>
-      <c r="D190" s="48"/>
-    </row>
-    <row r="191" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="47"/>
-      <c r="C191" s="48"/>
-      <c r="D191" s="48"/>
-    </row>
-    <row r="192" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="47"/>
-      <c r="C192" s="48"/>
-      <c r="D192" s="48"/>
-    </row>
-    <row r="193" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="47"/>
-      <c r="C193" s="48"/>
-      <c r="D193" s="48"/>
-    </row>
-    <row r="194" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="47"/>
-      <c r="C194" s="48"/>
-      <c r="D194" s="48"/>
-    </row>
-    <row r="195" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="47"/>
-      <c r="C195" s="48"/>
-      <c r="D195" s="48"/>
-    </row>
-    <row r="196" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="47"/>
-      <c r="C196" s="48"/>
-      <c r="D196" s="48"/>
-    </row>
-    <row r="197" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="47"/>
-      <c r="C197" s="48"/>
-      <c r="D197" s="48"/>
-    </row>
-    <row r="198" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="47"/>
-      <c r="C198" s="48"/>
-      <c r="D198" s="48"/>
-    </row>
-    <row r="199" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="47"/>
-      <c r="C199" s="48"/>
-      <c r="D199" s="48"/>
-    </row>
-    <row r="200" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="47"/>
-      <c r="C200" s="48"/>
-      <c r="D200" s="48"/>
-    </row>
-    <row r="201" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="47"/>
-      <c r="C201" s="48"/>
-      <c r="D201" s="48"/>
-    </row>
-    <row r="202" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="47"/>
-      <c r="C202" s="48"/>
-      <c r="D202" s="48"/>
-    </row>
-    <row r="203" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="47"/>
-      <c r="C203" s="48"/>
-      <c r="D203" s="48"/>
-    </row>
-    <row r="204" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="47"/>
-      <c r="C204" s="48"/>
-      <c r="D204" s="48"/>
-    </row>
-    <row r="205" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="47"/>
-      <c r="C205" s="48"/>
-      <c r="D205" s="48"/>
-    </row>
-    <row r="206" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="47"/>
-      <c r="C206" s="48"/>
-      <c r="D206" s="48"/>
-    </row>
-    <row r="207" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="47"/>
-      <c r="C207" s="48"/>
-      <c r="D207" s="48"/>
-    </row>
-    <row r="208" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="47"/>
-      <c r="C208" s="48"/>
-      <c r="D208" s="48"/>
-    </row>
-    <row r="209" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="47"/>
-      <c r="C209" s="48"/>
-      <c r="D209" s="48"/>
-    </row>
-    <row r="210" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="47"/>
-      <c r="C210" s="48"/>
-      <c r="D210" s="48"/>
-    </row>
-    <row r="211" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="47"/>
-      <c r="C211" s="48"/>
-      <c r="D211" s="48"/>
-    </row>
-    <row r="212" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="47"/>
-      <c r="C212" s="48"/>
-      <c r="D212" s="48"/>
-    </row>
-    <row r="213" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="47"/>
-      <c r="C213" s="48"/>
-      <c r="D213" s="48"/>
-    </row>
-    <row r="214" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="47"/>
-      <c r="C214" s="48"/>
-      <c r="D214" s="48"/>
-    </row>
-    <row r="215" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="47"/>
-      <c r="C215" s="48"/>
-      <c r="D215" s="48"/>
-    </row>
-    <row r="216" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="47"/>
-      <c r="C216" s="48"/>
-      <c r="D216" s="48"/>
-    </row>
-    <row r="217" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="47"/>
-      <c r="C217" s="48"/>
-      <c r="D217" s="48"/>
-    </row>
-    <row r="218" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="47"/>
-      <c r="C218" s="48"/>
-      <c r="D218" s="48"/>
-    </row>
-    <row r="219" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="47"/>
-      <c r="C219" s="48"/>
-      <c r="D219" s="48"/>
-    </row>
-    <row r="220" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="47"/>
-      <c r="C220" s="48"/>
-      <c r="D220" s="48"/>
-    </row>
-    <row r="221" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="47"/>
-      <c r="C221" s="48"/>
-      <c r="D221" s="48"/>
-    </row>
-    <row r="222" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="47"/>
-      <c r="C222" s="48"/>
-      <c r="D222" s="48"/>
-    </row>
-    <row r="223" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="47"/>
-      <c r="C223" s="48"/>
-      <c r="D223" s="48"/>
-    </row>
-    <row r="224" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="47"/>
-      <c r="C224" s="48"/>
-      <c r="D224" s="48"/>
-    </row>
-    <row r="225" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="47"/>
-      <c r="C225" s="48"/>
-      <c r="D225" s="48"/>
-    </row>
-    <row r="226" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="47"/>
-      <c r="C226" s="48"/>
-      <c r="D226" s="48"/>
-    </row>
-    <row r="227" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="47"/>
-      <c r="C227" s="48"/>
-      <c r="D227" s="48"/>
-    </row>
-    <row r="228" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="47"/>
-      <c r="C228" s="48"/>
-      <c r="D228" s="48"/>
-    </row>
-    <row r="229" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="47"/>
-      <c r="C229" s="48"/>
-      <c r="D229" s="48"/>
-    </row>
-    <row r="230" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="47"/>
-      <c r="C230" s="48"/>
-      <c r="D230" s="48"/>
-    </row>
-    <row r="231" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="47"/>
-      <c r="C231" s="48"/>
-      <c r="D231" s="48"/>
-    </row>
-    <row r="232" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="47"/>
-      <c r="C232" s="48"/>
-      <c r="D232" s="48"/>
-    </row>
-    <row r="233" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="47"/>
-      <c r="C233" s="48"/>
-      <c r="D233" s="48"/>
-    </row>
-    <row r="234" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="47"/>
-      <c r="C234" s="48"/>
-      <c r="D234" s="48"/>
-    </row>
-    <row r="235" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="47"/>
-      <c r="C235" s="48"/>
-      <c r="D235" s="48"/>
-    </row>
-    <row r="236" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="47"/>
-      <c r="C236" s="48"/>
-      <c r="D236" s="48"/>
-    </row>
-    <row r="237" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="47"/>
-      <c r="C237" s="48"/>
-      <c r="D237" s="48"/>
-    </row>
-    <row r="238" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="47"/>
-      <c r="C238" s="48"/>
-      <c r="D238" s="48"/>
-    </row>
-    <row r="239" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="47"/>
-      <c r="C239" s="48"/>
-      <c r="D239" s="48"/>
-    </row>
-    <row r="240" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="47"/>
-      <c r="C240" s="48"/>
-      <c r="D240" s="48"/>
-    </row>
-    <row r="241" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="47"/>
-      <c r="C241" s="48"/>
-      <c r="D241" s="48"/>
-    </row>
-    <row r="242" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="47"/>
-      <c r="C242" s="48"/>
-      <c r="D242" s="48"/>
-    </row>
-    <row r="243" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="47"/>
-      <c r="C243" s="48"/>
-      <c r="D243" s="48"/>
-    </row>
-    <row r="244" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="47"/>
-      <c r="C244" s="48"/>
-      <c r="D244" s="48"/>
-    </row>
-    <row r="245" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="47"/>
-      <c r="C245" s="48"/>
-      <c r="D245" s="48"/>
-    </row>
-    <row r="246" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="47"/>
-      <c r="C246" s="48"/>
-      <c r="D246" s="48"/>
-    </row>
-    <row r="247" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="47"/>
-      <c r="C247" s="48"/>
-      <c r="D247" s="48"/>
-    </row>
-    <row r="248" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="47"/>
-      <c r="C248" s="48"/>
-      <c r="D248" s="48"/>
-    </row>
-    <row r="249" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="47"/>
-      <c r="C249" s="48"/>
-      <c r="D249" s="48"/>
-    </row>
-    <row r="250" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="47"/>
-      <c r="C250" s="48"/>
-      <c r="D250" s="48"/>
-    </row>
-    <row r="251" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="47"/>
-      <c r="C251" s="48"/>
-      <c r="D251" s="48"/>
-    </row>
-    <row r="252" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="47"/>
-      <c r="C252" s="48"/>
-      <c r="D252" s="48"/>
-    </row>
-    <row r="253" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="47"/>
-      <c r="C253" s="48"/>
-      <c r="D253" s="48"/>
-    </row>
-    <row r="254" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="47"/>
-      <c r="C254" s="48"/>
-      <c r="D254" s="48"/>
-    </row>
-    <row r="255" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="47"/>
-      <c r="C255" s="48"/>
-      <c r="D255" s="48"/>
-    </row>
-    <row r="256" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="47"/>
-      <c r="C256" s="48"/>
-      <c r="D256" s="48"/>
-    </row>
-    <row r="257" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="47"/>
-      <c r="C257" s="48"/>
-      <c r="D257" s="48"/>
-    </row>
-    <row r="258" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="47"/>
-      <c r="C258" s="48"/>
-      <c r="D258" s="48"/>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="C79" t="s">
+        <v>391</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C80" t="s">
+        <v>392</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B81" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C81" t="s">
+        <v>393</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" t="s">
+        <v>394</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" t="s">
+        <v>395</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="C84" t="s">
+        <v>396</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="C85" t="s">
+        <v>397</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B86" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C86" t="s">
+        <v>398</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="C87" t="s">
+        <v>399</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B88" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="C88" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B89" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="C89" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B90" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="C90" t="s">
+        <v>402</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="C91" t="s">
+        <v>403</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="C92" t="s">
+        <v>404</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B93" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="C93" t="s">
+        <v>405</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B94" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="C94" t="s">
+        <v>406</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="C95" t="s">
+        <v>407</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="C96" t="s">
+        <v>408</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B97" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="C97" t="s">
+        <v>409</v>
+      </c>
+      <c r="D97">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="C98" t="s">
+        <v>410</v>
+      </c>
+      <c r="D98">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="C99" t="s">
+        <v>411</v>
+      </c>
+      <c r="D99">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B100" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="C100" t="s">
+        <v>412</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B101" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="C101" t="s">
+        <v>413</v>
+      </c>
+      <c r="D101">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="C102" t="s">
+        <v>414</v>
+      </c>
+      <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="C103" t="s">
+        <v>415</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B104" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="C104" t="s">
+        <v>416</v>
+      </c>
+      <c r="D104">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6956,7 +5910,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>44010.834594560183</v>
+        <v>44062.927276041664</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
@@ -7032,10 +5986,10 @@
         <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -7057,7 +6011,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>32</v>
@@ -7088,7 +6042,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>41</v>
@@ -7141,13 +6095,13 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -7172,13 +6126,13 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -7203,13 +6157,13 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -7234,13 +6188,13 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -7265,13 +6219,13 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -7321,13 +6275,13 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7352,13 +6306,13 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7383,13 +6337,13 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7414,13 +6368,13 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7445,13 +6399,13 @@
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -7476,13 +6430,13 @@
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7532,13 +6486,13 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -7563,13 +6517,13 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -7594,13 +6548,13 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -7625,13 +6579,13 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -7656,13 +6610,13 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -7687,13 +6641,13 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -7743,13 +6697,13 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -7774,13 +6728,13 @@
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -7805,13 +6759,13 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -7836,13 +6790,13 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7867,13 +6821,13 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -7923,10 +6877,10 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>259</v>
+        <v>128</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>32</v>
@@ -7954,10 +6908,10 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>259</v>
+        <v>128</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>41</v>
@@ -8010,121 +6964,121 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>295</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>296</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>297</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>300</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>301</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>303</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
         <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8135,26 +7089,26 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>306</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8165,13 +7119,13 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="s">
-        <v>307</v>
+        <v>146</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>308</v>
+        <v>147</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>309</v>
+        <v>148</v>
       </c>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
@@ -8196,13 +7150,13 @@
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
-        <v>307</v>
+        <v>146</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>310</v>
+        <v>149</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>311</v>
+        <v>150</v>
       </c>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
@@ -8228,226 +7182,226 @@
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>314</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>315</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>318</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>319</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>320</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>321</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>322</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="B56" t="s">
         <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="46" t="s">
-        <v>324</v>
+        <v>163</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>325</v>
+        <v>164</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="46" t="s">
-        <v>324</v>
+        <v>163</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>327</v>
+        <v>166</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="46" t="s">
-        <v>324</v>
+        <v>163</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>329</v>
+        <v>168</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>331</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46" t="s">
-        <v>324</v>
+        <v>163</v>
       </c>
       <c r="B61" s="46" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>334</v>
+        <v>173</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>336</v>
+        <v>175</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>337</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>338</v>
+        <v>177</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>339</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>340</v>
+        <v>179</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>341</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>342</v>
+        <v>181</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>343</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>346</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>344</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>348</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>305</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>199</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
